--- a/mappings/package_eforms_sdk1.8.0_epo4.0/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_eforms_sdk1.8.0_epo4.0/transformation/conceptual_mappings.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="868">
   <si>
     <t>Field</t>
   </si>
@@ -172,12 +172,6 @@
     <t>1.11</t>
   </si>
   <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>ND-Root</t>
   </si>
   <si>
@@ -232,6 +226,9 @@
     <t>BT-71-Part</t>
   </si>
   <si>
+    <t>BT-736-Part</t>
+  </si>
+  <si>
     <t>BT-191-Tender</t>
   </si>
   <si>
@@ -244,24 +241,27 @@
     <t>BT-162-Tender</t>
   </si>
   <si>
-    <t>BT-736-Part</t>
-  </si>
-  <si>
     <t>BT-163-Tender</t>
   </si>
   <si>
     <t>BT-127-notice</t>
   </si>
   <si>
+    <t>OPT-050-Part</t>
+  </si>
+  <si>
     <t>ND-Part</t>
   </si>
   <si>
+    <t>BT-708-Part</t>
+  </si>
+  <si>
+    <t>BT-737-Part</t>
+  </si>
+  <si>
     <t>BT-137-Part</t>
   </si>
   <si>
-    <t>OPT-050-Part</t>
-  </si>
-  <si>
     <t>ND-PartTenderingProcess</t>
   </si>
   <si>
@@ -271,9 +271,6 @@
     <t>BT-125(i)-Part</t>
   </si>
   <si>
-    <t>BT-708-Part</t>
-  </si>
-  <si>
     <t>BT-1251-Part</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>BT-22-Part</t>
   </si>
   <si>
-    <t>BT-737-Part</t>
-  </si>
-  <si>
     <t>BT-21-Part</t>
   </si>
   <si>
@@ -373,10 +367,7 @@
     <t>BT-115-Part</t>
   </si>
   <si>
-    <t>ND-PartFAContractingSystem</t>
-  </si>
-  <si>
-    <t>ND-PartDPSContractingSystem</t>
+    <t>OPT-070-Lot</t>
   </si>
   <si>
     <t>ND-PartTenderingTerms</t>
@@ -388,9 +379,6 @@
     <t>OPT-301-Part-FiscalLegis</t>
   </si>
   <si>
-    <t>BT-1501(s)-Contract</t>
-  </si>
-  <si>
     <t>OPT-110-Part-FiscalLegis</t>
   </si>
   <si>
@@ -430,9 +418,6 @@
     <t>BT-300-Part</t>
   </si>
   <si>
-    <t>ND-PartReservedExecution</t>
-  </si>
-  <si>
     <t>ND-PartInfoRequestPeriod</t>
   </si>
   <si>
@@ -445,18 +430,6 @@
     <t>ND-PartProcurementDocument</t>
   </si>
   <si>
-    <t>ND-PartDocAllOfficialLanguages</t>
-  </si>
-  <si>
-    <t>ND-PartDocOfficialLanguage</t>
-  </si>
-  <si>
-    <t>ND-PartDocAllNonOfficialLanguages</t>
-  </si>
-  <si>
-    <t>ND-PartDocNonOfficialLanguage</t>
-  </si>
-  <si>
     <t>BT-14-Part</t>
   </si>
   <si>
@@ -547,18 +520,12 @@
     <t>BT-201-Contract</t>
   </si>
   <si>
-    <t>ND-Modification</t>
-  </si>
-  <si>
     <t>ND-ModifiedSection</t>
   </si>
   <si>
     <t>BT-202-Contract</t>
   </si>
   <si>
-    <t>OPT-070-Lot</t>
-  </si>
-  <si>
     <t>ND-ProcedureTransportServiceType</t>
   </si>
   <si>
@@ -622,48 +589,12 @@
     <t>OPP-034-Tender</t>
   </si>
   <si>
-    <t>BT-125(i)-Part-Scheme</t>
-  </si>
-  <si>
-    <t>BT-137-Part-Scheme</t>
-  </si>
-  <si>
-    <t>BT-1501(n)-Contract-Scheme</t>
-  </si>
-  <si>
     <t>BT-160-Tender-Currency</t>
   </si>
   <si>
     <t>BT-162-Tender-Currency</t>
   </si>
   <si>
-    <t>BT-163-Tender-Language</t>
-  </si>
-  <si>
-    <t>BT-191-Tender-List</t>
-  </si>
-  <si>
-    <t>BT-200-Contract-List</t>
-  </si>
-  <si>
-    <t>BT-201-Contract-Language</t>
-  </si>
-  <si>
-    <t>BT-202-Contract-Language</t>
-  </si>
-  <si>
-    <t>BT-21-Part-Language</t>
-  </si>
-  <si>
-    <t>BT-22-Part-Scheme</t>
-  </si>
-  <si>
-    <t>BT-23-Part-List</t>
-  </si>
-  <si>
-    <t>BT-24-Part-Language</t>
-  </si>
-  <si>
     <t>BT-26(a)-Part</t>
   </si>
   <si>
@@ -673,108 +604,12 @@
     <t>BT-27-Part-Currency</t>
   </si>
   <si>
-    <t>BT-300-Part-Language</t>
-  </si>
-  <si>
-    <t>BT-36-Part-Unit</t>
-  </si>
-  <si>
-    <t>BT-5071-Part-List</t>
-  </si>
-  <si>
-    <t>BT-5141-Part-List</t>
-  </si>
-  <si>
-    <t>BT-531-Part-List</t>
-  </si>
-  <si>
-    <t>BT-538-Part-List</t>
-  </si>
-  <si>
-    <t>BT-728-Part-Language</t>
-  </si>
-  <si>
-    <t>BT-736-Part-List</t>
-  </si>
-  <si>
-    <t>BT-765-Part-List</t>
-  </si>
-  <si>
-    <t>BT-766-Part-List</t>
-  </si>
-  <si>
     <t>BT-779-Tender-Currency</t>
   </si>
   <si>
-    <t>BT-780-Tender-Language</t>
-  </si>
-  <si>
-    <t>BT-781-Lot-Language</t>
-  </si>
-  <si>
     <t>BT-782-Tender-Currency</t>
   </si>
   <si>
-    <t>OPP-021-Contract-Language</t>
-  </si>
-  <si>
-    <t>OPP-030-Tender-List</t>
-  </si>
-  <si>
-    <t>OPP-031-Tender-Language</t>
-  </si>
-  <si>
-    <t>OPP-033-Tender-List</t>
-  </si>
-  <si>
-    <t>OPP-034-Tender-Language</t>
-  </si>
-  <si>
-    <t>OPP-040-Procedure-List</t>
-  </si>
-  <si>
-    <t>OPP-080-Tender-Unit</t>
-  </si>
-  <si>
-    <t>OPT-070-Lot-Language</t>
-  </si>
-  <si>
-    <t>OPT-071-Lot-List</t>
-  </si>
-  <si>
-    <t>OPT-072-Lot-Language</t>
-  </si>
-  <si>
-    <t>OPT-301-Part-AddInfo-Scheme</t>
-  </si>
-  <si>
-    <t>OPT-301-Part-DocProvider-Scheme</t>
-  </si>
-  <si>
-    <t>OPT-301-Part-EmployLegis-Scheme</t>
-  </si>
-  <si>
-    <t>OPT-301-Part-EnvironLegis-Scheme</t>
-  </si>
-  <si>
-    <t>OPT-301-Part-FiscalLegis-Scheme</t>
-  </si>
-  <si>
-    <t>OPT-301-Part-Mediator-Scheme</t>
-  </si>
-  <si>
-    <t>OPT-301-Part-ReviewInfo-Scheme</t>
-  </si>
-  <si>
-    <t>OPT-301-Part-ReviewOrg-Scheme</t>
-  </si>
-  <si>
-    <t>OPT-301-Part-TenderEval-Scheme</t>
-  </si>
-  <si>
-    <t>OPT-301-Part-TenderReceipt-Scheme</t>
-  </si>
-  <si>
     <t>Subcontracting Allowed</t>
   </si>
   <si>
@@ -787,6 +622,9 @@
     <t>Reserved Participation</t>
   </si>
   <si>
+    <t>Reserved Execution</t>
+  </si>
+  <si>
     <t>Country Origin</t>
   </si>
   <si>
@@ -796,36 +634,33 @@
     <t>Concession Revenue User</t>
   </si>
   <si>
-    <t>Reserved Execution</t>
-  </si>
-  <si>
     <t>Concession Value Description</t>
   </si>
   <si>
     <t>Future Notice</t>
   </si>
   <si>
+    <t>Document Status</t>
+  </si>
+  <si>
+    <t>Documents Official Language</t>
+  </si>
+  <si>
+    <t>Documents Unofficial Language</t>
+  </si>
+  <si>
     <t>Purpose Lot Identifier</t>
   </si>
   <si>
-    <t>Document Status</t>
-  </si>
-  <si>
     <t>Previous Planning Identifier</t>
   </si>
   <si>
-    <t>Documents Official Language</t>
-  </si>
-  <si>
     <t>Previous Planning Part Identifier</t>
   </si>
   <si>
     <t>Internal Identifier</t>
   </si>
   <si>
-    <t>Documents Unofficial Language</t>
-  </si>
-  <si>
     <t>Main Nature</t>
   </si>
   <si>
@@ -886,12 +721,12 @@
     <t>GPA Coverage</t>
   </si>
   <si>
+    <t>Reserved Execution justification</t>
+  </si>
+  <si>
     <t>Fiscal Legislation Organization Technical Identifier Reference</t>
   </si>
   <si>
-    <t>Modification Previous Notice Section Identifier</t>
-  </si>
-  <si>
     <t>URL to Fiscal Legislation</t>
   </si>
   <si>
@@ -1009,9 +844,6 @@
     <t>Modification Description</t>
   </si>
   <si>
-    <t>Reserved Execution justification</t>
-  </si>
-  <si>
     <t>Main Nature - Sub Type</t>
   </si>
   <si>
@@ -1051,156 +883,24 @@
     <t>Penalties and Rewards Description</t>
   </si>
   <si>
-    <t>Previous Planning Identifier Schemename</t>
-  </si>
-  <si>
-    <t>Purpose Lot Identifier Schemename</t>
-  </si>
-  <si>
-    <t>Modification Previous Notice Identifier Schemename</t>
-  </si>
-  <si>
     <t>Concession Revenue Buyer Currency</t>
   </si>
   <si>
     <t>Concession Revenue User Currency</t>
   </si>
   <si>
-    <t>Concession Value Description Language</t>
-  </si>
-  <si>
-    <t>Country Origin Listname</t>
-  </si>
-  <si>
-    <t>Modification Reason Code Listname</t>
-  </si>
-  <si>
-    <t>Modification Reason Description Language</t>
-  </si>
-  <si>
-    <t>Modification Description Language</t>
-  </si>
-  <si>
-    <t>Title Language</t>
-  </si>
-  <si>
-    <t>Internal Identifier Schemename</t>
-  </si>
-  <si>
-    <t>Main Nature Listname</t>
-  </si>
-  <si>
-    <t>Description Language</t>
-  </si>
-  <si>
     <t>Classification Type (e.g. CPV)</t>
   </si>
   <si>
     <t>Estimated Value Currency</t>
   </si>
   <si>
-    <t>Additional Information Language</t>
-  </si>
-  <si>
-    <t>Duration Period Unit</t>
-  </si>
-  <si>
-    <t>Place Performance Country Subdivision Listname</t>
-  </si>
-  <si>
-    <t>Place Performance Country Code Listname</t>
-  </si>
-  <si>
-    <t>Additional Nature (different from Main) Listname</t>
-  </si>
-  <si>
-    <t>Duration Other Listname</t>
-  </si>
-  <si>
-    <t>Place Performance Additional Information Language</t>
-  </si>
-  <si>
-    <t>Reserved Execution Listname</t>
-  </si>
-  <si>
-    <t>Framework Agreement Listname</t>
-  </si>
-  <si>
-    <t>Dynamic Purchasing System Listname</t>
-  </si>
-  <si>
     <t>Tender Payment Value Currency</t>
   </si>
   <si>
-    <t>Tender Payment Value Additional Information Language</t>
-  </si>
-  <si>
-    <t>Duration Additional Information Language</t>
-  </si>
-  <si>
     <t>Tender Penalties Currency</t>
   </si>
   <si>
-    <t>Used asset Language</t>
-  </si>
-  <si>
-    <t>Contract conditions Code Listname</t>
-  </si>
-  <si>
-    <t>Contract Conditions Description (other than revenue allocation) Language</t>
-  </si>
-  <si>
-    <t>Penalties and Rewards Code Listname</t>
-  </si>
-  <si>
-    <t>Penalties and Rewards Description Language</t>
-  </si>
-  <si>
-    <t>Main Nature - Sub Type Listname</t>
-  </si>
-  <si>
-    <t>Kilometers Public Transport Unit</t>
-  </si>
-  <si>
-    <t>Reserved Execution justification Language</t>
-  </si>
-  <si>
-    <t>Quality Target Code Listname</t>
-  </si>
-  <si>
-    <t>Quality Target Description Language</t>
-  </si>
-  <si>
-    <t>Additional Info Provider Technical Identifier Reference Schemename</t>
-  </si>
-  <si>
-    <t>Document Provider Technical Identifier Reference Schemename</t>
-  </si>
-  <si>
-    <t>Employment Legislation Organization Technical Identifier Reference Schemename</t>
-  </si>
-  <si>
-    <t>Environmental Legislation Organization Technical Identifier Reference Schemename</t>
-  </si>
-  <si>
-    <t>Fiscal Legislation Organization Technical Identifier Reference Schemename</t>
-  </si>
-  <si>
-    <t>Mediator Technical Identifier Reference Schemename</t>
-  </si>
-  <si>
-    <t>Review Info Provider Technical Identifier Reference Schemename</t>
-  </si>
-  <si>
-    <t>Review Organization Technical Identifier Reference Schemename</t>
-  </si>
-  <si>
-    <t>Tender Evaluator Technical Identifier Reference Schemename</t>
-  </si>
-  <si>
-    <t>Tender Recipient Technical Identifier Reference Schemename</t>
-  </si>
-  <si>
     <t>OPT-150</t>
   </si>
   <si>
@@ -1213,6 +913,9 @@
     <t>BT-71</t>
   </si>
   <si>
+    <t>BT-736</t>
+  </si>
+  <si>
     <t>BT-191</t>
   </si>
   <si>
@@ -1222,36 +925,33 @@
     <t>BT-162</t>
   </si>
   <si>
-    <t>BT-736</t>
-  </si>
-  <si>
     <t>BT-163</t>
   </si>
   <si>
     <t>BT-127</t>
   </si>
   <si>
+    <t>OPT-050</t>
+  </si>
+  <si>
+    <t>BT-708</t>
+  </si>
+  <si>
+    <t>BT-737</t>
+  </si>
+  <si>
     <t>BT-137</t>
   </si>
   <si>
-    <t>OPT-050</t>
-  </si>
-  <si>
     <t>BT-125</t>
   </si>
   <si>
-    <t>BT-708</t>
-  </si>
-  <si>
     <t>BT-1251</t>
   </si>
   <si>
     <t>BT-22</t>
   </si>
   <si>
-    <t>BT-737</t>
-  </si>
-  <si>
     <t>BT-21</t>
   </si>
   <si>
@@ -1312,84 +1012,87 @@
     <t>BT-115</t>
   </si>
   <si>
+    <t>OPT-070</t>
+  </si>
+  <si>
     <t>OPT-301</t>
   </si>
   <si>
+    <t>OPT-110</t>
+  </si>
+  <si>
+    <t>OPT-111</t>
+  </si>
+  <si>
+    <t>OPT-120</t>
+  </si>
+  <si>
+    <t>OPT-112</t>
+  </si>
+  <si>
+    <t>OPT-130</t>
+  </si>
+  <si>
+    <t>OPT-113</t>
+  </si>
+  <si>
+    <t>BT-300</t>
+  </si>
+  <si>
+    <t>BT-13</t>
+  </si>
+  <si>
+    <t>BT-14</t>
+  </si>
+  <si>
+    <t>BT-707</t>
+  </si>
+  <si>
+    <t>BT-15</t>
+  </si>
+  <si>
+    <t>BT-615</t>
+  </si>
+  <si>
+    <t>OPT-140</t>
+  </si>
+  <si>
+    <t>BT-632</t>
+  </si>
+  <si>
+    <t>BT-124</t>
+  </si>
+  <si>
+    <t>BT-783</t>
+  </si>
+  <si>
+    <t>BT-788</t>
+  </si>
+  <si>
+    <t>BT-789</t>
+  </si>
+  <si>
+    <t>BT-790</t>
+  </si>
+  <si>
+    <t>BT-791</t>
+  </si>
+  <si>
+    <t>BT-792</t>
+  </si>
+  <si>
+    <t>BT-793</t>
+  </si>
+  <si>
+    <t>BT-795</t>
+  </si>
+  <si>
+    <t>BT-798</t>
+  </si>
+  <si>
     <t>BT-1501</t>
   </si>
   <si>
-    <t>OPT-110</t>
-  </si>
-  <si>
-    <t>OPT-111</t>
-  </si>
-  <si>
-    <t>OPT-120</t>
-  </si>
-  <si>
-    <t>OPT-112</t>
-  </si>
-  <si>
-    <t>OPT-130</t>
-  </si>
-  <si>
-    <t>OPT-113</t>
-  </si>
-  <si>
-    <t>BT-300</t>
-  </si>
-  <si>
-    <t>BT-13</t>
-  </si>
-  <si>
-    <t>BT-14</t>
-  </si>
-  <si>
-    <t>BT-707</t>
-  </si>
-  <si>
-    <t>BT-15</t>
-  </si>
-  <si>
-    <t>BT-615</t>
-  </si>
-  <si>
-    <t>OPT-140</t>
-  </si>
-  <si>
-    <t>BT-632</t>
-  </si>
-  <si>
-    <t>BT-124</t>
-  </si>
-  <si>
-    <t>BT-783</t>
-  </si>
-  <si>
-    <t>BT-788</t>
-  </si>
-  <si>
-    <t>BT-789</t>
-  </si>
-  <si>
-    <t>BT-790</t>
-  </si>
-  <si>
-    <t>BT-791</t>
-  </si>
-  <si>
-    <t>BT-792</t>
-  </si>
-  <si>
-    <t>BT-793</t>
-  </si>
-  <si>
-    <t>BT-795</t>
-  </si>
-  <si>
-    <t>BT-798</t>
-  </si>
-  <si>
     <t>BT-799</t>
   </si>
   <si>
@@ -1402,9 +1105,6 @@
     <t>BT-202</t>
   </si>
   <si>
-    <t>OPT-070</t>
-  </si>
-  <si>
     <t>OPP-040</t>
   </si>
   <si>
@@ -1450,18 +1150,15 @@
     <t>BT-779</t>
   </si>
   <si>
-    <t>BT-780</t>
-  </si>
-  <si>
-    <t>BT-781</t>
-  </si>
-  <si>
     <t>BT-782</t>
   </si>
   <si>
     <t>MG-SubmissionTerm-isSubjectToLotSpecificTerm-Lot</t>
   </si>
   <si>
+    <t>MG-ContractTerm-foreseesContractSpecificTerm-ProcurementObject-foreseesProcurementObject-PlannedProcurementPart</t>
+  </si>
+  <si>
     <t>MG-Tender</t>
   </si>
   <si>
@@ -1474,9 +1171,6 @@
     <t>MG-MonetaryValue-hasEstimatedUserConcessionRevenue-ConcessionEstimate-foreseesConcession-Tender</t>
   </si>
   <si>
-    <t>MG-ContractTerm-foreseesContractSpecificTerm-ProcurementObject-foreseesProcurementObject-PlannedProcurementPart</t>
-  </si>
-  <si>
     <t>MG-PlannedProcurementPart</t>
   </si>
   <si>
@@ -1507,9 +1201,6 @@
     <t>MG-SpecificDuration-hasPlannedDuration-PlannedProcurementPart</t>
   </si>
   <si>
-    <t>MG-ContractTerm-foreseesContractSpecificTerm-Lot</t>
-  </si>
-  <si>
     <t>/*</t>
   </si>
   <si>
@@ -1564,6 +1255,9 @@
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:TendererQualificationRequest[not(cbc:CompanyLegalFormCode)][not(cac:SpecificTendererRequirement/cbc:TendererRequirementTypeCode[@listName='missing-info-submission'])]/cac:SpecificTendererRequirement[cbc:TendererRequirementTypeCode/@listName='reserved-procurement']/cbc:TendererRequirementTypeCode</t>
   </si>
   <si>
+    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:ContractExecutionRequirement/cbc:ExecutionRequirementCode[@listName='reserved-execution']</t>
+  </si>
+  <si>
     <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:LotTender/efac:Origin/efbc:AreaCode</t>
   </si>
   <si>
@@ -1576,24 +1270,27 @@
     <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:LotTender/efac:ConcessionRevenue/efbc:RevenueUserAmount</t>
   </si>
   <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:ContractExecutionRequirement/cbc:ExecutionRequirementCode[@listName='reserved-execution']</t>
-  </si>
-  <si>
     <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:LotTender/efac:ConcessionRevenue/efbc:ValueDescription</t>
   </si>
   <si>
     <t>/*/cbc:PlannedDate</t>
   </si>
   <si>
+    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:CallForTendersDocumentReference/cbc:DocumentStatusCode</t>
+  </si>
+  <si>
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']</t>
   </si>
   <si>
+    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:CallForTendersDocumentReference/cbc:LanguageID[../cbc:DocumentStatusCode/text()='official']</t>
+  </si>
+  <si>
+    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:CallForTendersDocumentReference/cbc:LanguageID[../cbc:DocumentStatusCode/text()='non-official']</t>
+  </si>
+  <si>
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cbc:ID</t>
   </si>
   <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:CallForTendersDocumentReference/cbc:DocumentStatusCode</t>
-  </si>
-  <si>
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingProcess</t>
   </si>
   <si>
@@ -1603,9 +1300,6 @@
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingProcess/cac:NoticeDocumentReference/cbc:ID</t>
   </si>
   <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:CallForTendersDocumentReference/cbc:LanguageID[../cbc:DocumentStatusCode/text()='official']</t>
-  </si>
-  <si>
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingProcess/cac:NoticeDocumentReference/cbc:ReferencedDocumentInternalAddress</t>
   </si>
   <si>
@@ -1615,9 +1309,6 @@
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cbc:ID</t>
   </si>
   <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:CallForTendersDocumentReference/cbc:LanguageID[../cbc:DocumentStatusCode/text()='non-official']</t>
-  </si>
-  <si>
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cbc:Name</t>
   </si>
   <si>
@@ -1705,10 +1396,7 @@
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingProcess/cbc:GovernmentAgreementConstraintIndicator</t>
   </si>
   <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingProcess/cac:ContractingSystem[cbc:ContractingSystemTypeCode/@listName='framework-agreement']</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingProcess/cac:ContractingSystem[cbc:ContractingSystemTypeCode/@listName='dps-usage']</t>
+    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Lot']/cac:TenderingTerms/cac:ContractExecutionRequirement[cbc:ExecutionRequirementCode/@listName='reserved-execution']/cbc:Description</t>
   </si>
   <si>
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms</t>
@@ -1720,9 +1408,6 @@
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:FiscalLegislationDocumentReference/cac:IssuerParty/cac:PartyIdentification/cbc:ID</t>
   </si>
   <si>
-    <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:ContractModification/efac:Change/efac:ChangedSection/efbc:ChangedSectionIdentifier</t>
-  </si>
-  <si>
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:FiscalLegislationDocumentReference/cac:Attachment/cac:ExternalReference/cbc:URI</t>
   </si>
   <si>
@@ -1762,9 +1447,6 @@
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cbc:Note</t>
   </si>
   <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:ContractExecutionRequirement[cbc:ExecutionRequirementCode/@listName='reserved-execution']</t>
-  </si>
-  <si>
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingProcess/cac:AdditionalInformationRequestPeriod</t>
   </si>
   <si>
@@ -1777,18 +1459,6 @@
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:CallForTendersDocumentReference</t>
   </si>
   <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:CallForTendersDocumentReference/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:OfficialLanguages</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:CallForTendersDocumentReference/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:OfficialLanguages/cac:Language</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:CallForTendersDocumentReference/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NonOfficialLanguages</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:CallForTendersDocumentReference/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NonOfficialLanguages/cac:Language</t>
-  </si>
-  <si>
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:CallForTendersDocumentReference/cbc:DocumentType</t>
   </si>
   <si>
@@ -1879,18 +1549,12 @@
     <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:ContractModification/efac:ChangeReason/efbc:ReasonDescription</t>
   </si>
   <si>
-    <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:ContractModification/efac:Change</t>
-  </si>
-  <si>
     <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:ContractModification/efac:Change/efac:ChangedSection</t>
   </si>
   <si>
     <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:ContractModification/efac:Change/efbc:ChangeDescription</t>
   </si>
   <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Lot']/cac:TenderingTerms/cac:ContractExecutionRequirement[cbc:ExecutionRequirementCode/@listName='reserved-execution']/cbc:Description</t>
-  </si>
-  <si>
     <t>/*/cac:ProcurementProject/cac:ProcurementAdditionalType[cbc:ProcurementTypeCode/@listName='transport-service']</t>
   </si>
   <si>
@@ -1954,48 +1618,12 @@
     <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:LotTender/efac:ContractTerm[efbc:TermCode/@listName='rewards-penalties']/efbc:TermDescription</t>
   </si>
   <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingProcess/cac:NoticeDocumentReference/cbc:ID/@schemeName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cbc:ID/@schemeName</t>
-  </si>
-  <si>
-    <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:ContractModification/efbc:ChangedNoticeIdentifier/@schemeName</t>
-  </si>
-  <si>
     <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:LotTender/efac:ConcessionRevenue/efbc:RevenueBuyerAmount/@currencyID</t>
   </si>
   <si>
     <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:LotTender/efac:ConcessionRevenue/efbc:RevenueUserAmount/@currencyID</t>
   </si>
   <si>
-    <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:LotTender/efac:ConcessionRevenue/efbc:ValueDescription/@languageID</t>
-  </si>
-  <si>
-    <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:LotTender/efac:Origin/efbc:AreaCode/@listName</t>
-  </si>
-  <si>
-    <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:ContractModification/efac:ChangeReason/cbc:ReasonCode/@listName</t>
-  </si>
-  <si>
-    <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:ContractModification/efac:ChangeReason/efbc:ReasonDescription/@languageID</t>
-  </si>
-  <si>
-    <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:ContractModification/efac:Change/efbc:ChangeDescription/@languageID</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cbc:Name/@languageID</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cbc:ID/@schemeName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cbc:ProcurementTypeCode[@listName='contract-nature']/@listName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cbc:Description/@languageID</t>
-  </si>
-  <si>
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cac:AdditionalCommodityClassification/cbc:ItemClassificationCode/@listName</t>
   </si>
   <si>
@@ -2005,108 +1633,12 @@
     <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cac:RequestedTenderTotal/cbc:EstimatedOverallContractAmount/@currencyID</t>
   </si>
   <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cbc:Note/@languageID</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cac:PlannedPeriod/cbc:DurationMeasure/@unitCode</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cac:RealizedLocation/cac:Address/cbc:CountrySubentityCode/@listName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cac:RealizedLocation/cac:Address/cac:Country/cbc:IdentificationCode/@listName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cac:ProcurementAdditionalType[cbc:ProcurementTypeCode/@listName='contract-nature']/cbc:ProcurementTypeCode/@listName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cac:PlannedPeriod/cbc:DescriptionCode/@listName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:ProcurementProject/cac:RealizedLocation/cbc:Description/@languageID</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:ContractExecutionRequirement[cbc:ExecutionRequirementCode/@listName='reserved-execution']/cbc:ExecutionRequirementCode/@listName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingProcess/cac:ContractingSystem[cbc:ContractingSystemTypeCode/@listName='framework-agreement']/cbc:ContractingSystemTypeCode/@listName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingProcess/cac:ContractingSystem[cbc:ContractingSystemTypeCode/@listName='dps-usage']/cbc:ContractingSystemTypeCode/@listName</t>
-  </si>
-  <si>
     <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:LotTender/efac:AggregatedAmounts/cbc:PaidAmount/@currencyID</t>
   </si>
   <si>
-    <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:LotTender/efac:AggregatedAmounts/efbc:PaidAmountDescription/@languageID</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Lot']/cac:ProcurementProject/cac:PlannedPeriod/cbc:Description/@languageID</t>
-  </si>
-  <si>
     <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:LotTender/efac:AggregatedAmounts/efbc:PenaltiesAmount/@currencyID</t>
   </si>
   <si>
-    <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:SettledContract/efac:DurationJustification/efac:AssetsList/efac:Asset/efbc:AssetDescription/@languageID</t>
-  </si>
-  <si>
-    <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:LotTender/efac:ContractTerm[not(efbc:TermCode/text()='all-rev-tic')][efbc:TermCode/@listName='contract-detail']/efbc:TermCode/@listName</t>
-  </si>
-  <si>
-    <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:LotTender/efac:ContractTerm[not(efbc:TermCode/text()='all-rev-tic')][efbc:TermCode/@listName='contract-detail']/efbc:TermDescription/@languageID</t>
-  </si>
-  <si>
-    <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:LotTender/efac:ContractTerm[efbc:TermCode/@listName='rewards-penalties']/efbc:TermCode/@listName</t>
-  </si>
-  <si>
-    <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:LotTender/efac:ContractTerm[efbc:TermCode/@listName='rewards-penalties']/efbc:TermDescription/@languageID</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProject/cac:ProcurementAdditionalType[cbc:ProcurementTypeCode/@listName='transport-service']/cbc:ProcurementTypeCode/@listName</t>
-  </si>
-  <si>
-    <t>/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeResult/efac:LotTender/efbc:PublicTransportationCumulatedDistance/@unitCode</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Lot']/cac:TenderingTerms/cac:ContractExecutionRequirement[cbc:ExecutionRequirementCode/@listName='reserved-execution']/cbc:Description/@languageID</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Lot']/cac:TenderingTerms/cac:ContractExecutionRequirement[cbc:ExecutionRequirementCode/@listName='customer-service']/cbc:ExecutionRequirementCode/@listName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Lot']/cac:TenderingTerms/cac:ContractExecutionRequirement[cbc:ExecutionRequirementCode/@listName='customer-service']/cbc:Description/@languageID</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:AdditionalInformationParty/cac:PartyIdentification/cbc:ID/@schemeName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:DocumentProviderParty/cac:PartyIdentification/cbc:ID/@schemeName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:EmploymentLegislationDocumentReference/cac:IssuerParty/cac:PartyIdentification/cbc:ID/@schemeName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:EnvironmentalLegislationDocumentReference/cac:IssuerParty/cac:PartyIdentification/cbc:ID/@schemeName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:FiscalLegislationDocumentReference/cac:IssuerParty/cac:PartyIdentification/cbc:ID/@schemeName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:AppealTerms/cac:MediationParty/cac:PartyIdentification/cbc:ID/@schemeName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:AppealTerms/cac:AppealInformationParty/cac:PartyIdentification/cbc:ID/@schemeName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:AppealTerms/cac:AppealReceiverParty/cac:PartyIdentification/cbc:ID/@schemeName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:TenderEvaluationParty/cac:PartyIdentification/cbc:ID/@schemeName</t>
-  </si>
-  <si>
-    <t>/*/cac:ProcurementProjectLot[cbc:ID/@schemeName='Part']/cac:TenderingTerms/cac:TenderRecipientParty/cac:PartyIdentification/cbc:ID/@schemeName</t>
-  </si>
-  <si>
     <t>/*/cbc:NoticeTypeCode/@listName='planning' or (/*/cbc:NoticeTypeCode/@listName='change' and exists(/*/ext:UBLExtensions/ext:UBLExtension/ext:ExtensionContent/efext:EformsExtension/efac:NoticeSubType/cbc:SubTypeCode[contains('1 2 3 4 5 6 7 8 9 T01', text())]))</t>
   </si>
   <si>
@@ -2135,9 +1667,6 @@
   </si>
   <si>
     <t>cac:IssuerParty/cac:PartyIdentification/cbc:ID/@schemeName='touchpoint' or exists(cac:IssuerParty/cac:PartyIdentification/cbc:ID[starts-with(text(), 'TPO-')])</t>
-  </si>
-  <si>
-    <t>starts-with(efbc:ChangedSectionIdentifier/text(), 'CON')</t>
   </si>
   <si>
     <t>cac:PartyIdentification/cbc:ID/@schemeName='organization' or exists(cac:PartyIdentification/cbc:ID[starts-with(text(), 'ORG-')])</t>
@@ -2181,12 +1710,6 @@
     <t>exists(cbc:ReasonCode) or exists(efbc:ReasonDescription)</t>
   </si>
   <si>
-    <t>exists(efac:ChangedSection/efbc:ChangedSectionIdentifier)</t>
-  </si>
-  <si>
-    <t>cac:IssuerParty/cac:PartyIdentification/cbc:ID/@schemeName='organization' or exists(cac:IssuerParty/cac:PartyIdentification/cbc:ID[starts-with(text(), 'ORG-')])</t>
-  </si>
-  <si>
     <t>epo-not:PlanningNotice</t>
   </si>
   <si>
@@ -2205,6 +1728,9 @@
     <t>epo:PlannedProcurementPart / epo:DynamicPurchaseSystemTechnique / at-voc:dps-usage</t>
   </si>
   <si>
+    <t>epo:PlannedProcurementPart / epo:ProcurementObject / epo:ContractTerm / at-voc:applicability</t>
+  </si>
+  <si>
     <t>epo:Tender / at-voc:country</t>
   </si>
   <si>
@@ -2214,9 +1740,6 @@
     <t>epo:Tender / epo:ConcessionEstimate / epo:MonetaryValue / xsd:decimal</t>
   </si>
   <si>
-    <t>epo:PlannedProcurementPart / epo:ProcurementObject / epo:ContractTerm / at-voc:applicability</t>
-  </si>
-  <si>
     <t>epo:Tender / epo:ConcessionEstimate / rdf:langString</t>
   </si>
   <si>
@@ -2301,15 +1824,9 @@
     <t>epo-not:PlanningNotice / epo:TaxInformationProvider / cpov:ContactPoint</t>
   </si>
   <si>
-    <t>epo-con:ContractAmendment / epo:Contract</t>
-  </si>
-  <si>
     <t>epo-not:PlanningNotice / epo:TaxInformationProvider / org:Organization</t>
   </si>
   <si>
-    <t>epo-con:ContractModificationInformation / adms:Identifier / rdf:langString</t>
-  </si>
-  <si>
     <t>epo-not:PlanningNotice / epo:EnvironmentalProtectionInformationProvider / epo:ProcurementObject</t>
   </si>
   <si>
@@ -2475,18 +1992,9 @@
     <t>epo:PlannedProcurementPart / epo:MonetaryValue / at-voc:currency</t>
   </si>
   <si>
-    <t>epo:PlannedProcurementPart / epo:SpecificDuration / time:TemporalUnit</t>
-  </si>
-  <si>
     <t>epo:ContractLotCompletionInformation / epo:MonetaryValue / at-voc:currency</t>
   </si>
   <si>
-    <t>epo:ContractLotCompletionInformation / rdf:langString</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:ContractTerm / rdf:langString</t>
-  </si>
-  <si>
     <t>?this a epo-not:PlanningNotice .</t>
   </si>
   <si>
@@ -2503,6 +2011,9 @@
   </si>
   <si>
     <t>?this epo:foreseesTechnique / epo:hasDPSScope ?value .</t>
+  </si>
+  <si>
+    <t>?this epo:foreseesProcurementObject / epo:foreseesContractSpecificTerm / epo:hasReservedExecution ?value .</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2518,9 +2029,6 @@
     <t>?this epo:foreseesConcession / epo:hasEstimatedUserConcessionRevenue / epo:hasAmountValue ?value .</t>
   </si>
   <si>
-    <t>?this epo:foreseesProcurementObject / epo:foreseesContractSpecificTerm / epo:hasReservedExecution ?value .</t>
-  </si>
-  <si>
     <t>?this epo:foreseesConcession / epo:hasCalculationMethod ?value .</t>
   </si>
   <si>
@@ -2628,15 +2136,9 @@
     <t>?this epo:announcesRole / epo:hasContactPointInRole ?value .</t>
   </si>
   <si>
-    <t>?this epo:amendsContract ?value</t>
-  </si>
-  <si>
     <t>?this epo:announcesRole / epo:playedBy ?value .</t>
   </si>
   <si>
-    <t>?this epo:relatesToEFormSectionIdentifier / skos:notation ?value .</t>
-  </si>
-  <si>
     <t>?this epo:foreseesProcurementObject / epo:hasAdditionalInformation ?value .</t>
   </si>
   <si>
@@ -2727,83 +2229,19 @@
     <t>?this epo:hasModificationDescription ?value</t>
   </si>
   <si>
-    <t>?this epo:refersToPrevious / adms:identifier / epo:hasScheme ?value .</t>
-  </si>
-  <si>
-    <t>?this adms:identifier / epo:hasScheme ?value .</t>
-  </si>
-  <si>
     <t>?this epo:foreseesConcession / epo:hasEstimatedBuyerConcessionRevenue / epo:hasCurrency ?value .</t>
   </si>
   <si>
     <t>?this epo:foreseesConcession / epo:hasEstimatedUserConcessionRevenue / epo:hasCurrency ?value .</t>
   </si>
   <si>
-    <t>?this epo:foreseesConcession / epo:hasCalculationMethod ?value .   FILTER(datatype(?value) = rdf:langString)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-?this epo:hasItemCountryOfOrigin ?value .   FILTER ( ISIRI(?value) &amp;&amp; CONTAINS(str(?value), 'europa.eu/') )</t>
-  </si>
-  <si>
-    <t>?this epo:hasModificationJustification ?value .   FILTER ( ISIRI(?value) &amp;&amp; CONTAINS(str(?value), 'europa.eu/') )</t>
-  </si>
-  <si>
-    <t>?this epo:hasModificationReasonDescription ?value .   FILTER(datatype(?value) = rdf:langString)</t>
-  </si>
-  <si>
-    <t>?this epo:hasModificationDescription ?value .   FILTER(datatype(?value) = rdf:langString)</t>
-  </si>
-  <si>
-    <t>?this epo:hasInternalIdentifier / epo:hasScheme ?value .</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesProcurementObject / epo:foreseesContractSpecificTerm / epo:hasContractNatureType ?value .   FILTER ( ISIRI(?value) &amp;&amp; CONTAINS(str(?value), 'europa.eu/') )</t>
-  </si>
-  <si>
     <t>?this epo:hasEstimatedValue / epo:hasCurrency ?value .</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesProcurementObject / epo:hasAdditionalInformation ?value .   FILTER(datatype(?value) = rdf:langString)</t>
-  </si>
-  <si>
-    <t>?this epo:hasPlannedDuration / time:unitType ?value .</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesProcurementObject / epo:foreseesContractSpecificTerm / epo:definesSpecificPlaceOfPerformance / epo:hasNutsCode ?value .   FILTER ( ISIRI(?value) &amp;&amp; CONTAINS(str(?value), 'europa.eu/') )</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesProcurementObject / epo:foreseesContractSpecificTerm / epo:definesSpecificPlaceOfPerformance / epo:hasCountryCode ?value .   FILTER ( ISIRI(?value) &amp;&amp; CONTAINS(str(?value), 'europa.eu/') )</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesProcurementObject / epo:foreseesContractSpecificTerm / epo:hasAdditionalContractNature ?value .   FILTER ( ISIRI(?value) &amp;&amp; CONTAINS(str(?value), 'europa.eu/') )</t>
-  </si>
-  <si>
-    <t>?this epo:hasPlannedPeriod / epo:hasTimePeriod ?value .   FILTER ( ISIRI(?value) &amp;&amp; CONTAINS(str(?value), 'europa.eu/') )</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesProcurementObject / epo:foreseesContractSpecificTerm / epo:hasPlaceOfPerformanceAdditionalInformation ?value .   FILTER(datatype(?value) = rdf:langString)</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesProcurementObject / epo:foreseesContractSpecificTerm / epo:hasReservedExecution ?value .   FILTER ( ISIRI(?value) &amp;&amp; CONTAINS(str(?value), 'europa.eu/') )</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesProcurementObject / epo:foreseesContractSpecificTerm / epo:hasFrameworkAgreementType ?value .   FILTER ( ISIRI(?value) &amp;&amp; CONTAINS(str(?value), 'europa.eu/') )</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesTechnique / epo:hasDPSScope ?value .   FILTER ( ISIRI(?value) &amp;&amp; CONTAINS(str(?value), 'europa.eu/') )</t>
   </si>
   <si>
     <t xml:space="preserve">
 ?this  epo:providesContractTotalPaymentValue / epo:hasCurrency ?value .</t>
   </si>
   <si>
-    <t>?this  epo:hasPaymentValueDiscrepancyJustification ?value .   FILTER(datatype(?value) = rdf:langString)</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesContractSpecificTerm / epo:hasExceedingDurationJustification ?value .   FILTER(datatype(?value) = rdf:langString)</t>
-  </si>
-  <si>
     <t>?this epo:providesContractTotalPenaltyValue / epo:hasCurrency ?value .</t>
   </si>
   <si>
@@ -2870,22 +2308,22 @@
     <t>Likely unmappable. See GH issue https://github.com/OP-TED/ePO/issues/726</t>
   </si>
   <si>
+    <t>Ask Paul or Yves, what document this relates to? How it relates to the Part?????</t>
+  </si>
+  <si>
     <t>Technical identifier</t>
   </si>
   <si>
-    <t>Ask Paul or Yves, what document this relates to? How it relates to the Part?????</t>
-  </si>
-  <si>
     <t>codeList/id modified to "contract-nature" from SDK 1.12 onwards</t>
   </si>
   <si>
     <t>codeList/id modified from "eforms-country" to "country" (generalization) from SDK 1.11 onwards.</t>
   </si>
   <si>
+    <t>Unmappable. See GH issue https://github.com/OP-TED/ePO/issues/726</t>
+  </si>
+  <si>
     <t>Here we link to the epo:TaxInformationProvider instance the epo:ContactPoint created for the TouchPoint that has the specified Technical Identifier. The ContactPoint instance will be matched by its IRI, using the value of this field.</t>
-  </si>
-  <si>
-    <t>epo-con:ContractModificationInformation instance is the one create and linked to the epo-con:ContractAmendment instance in the ND-ModifiedSection node.</t>
   </si>
   <si>
     <t>Here we link to the epo:TaxInformationProvider instance the org:Organization of the epo:ContactPoint that has the specified Technical Identifier.
@@ -3006,9 +2444,6 @@
   </si>
   <si>
     <t>epo-con:ContractModificationInformation instance is the one create and linked to the epo-con:ContractAmendment instance in the ND-Modification node.</t>
-  </si>
-  <si>
-    <t>Unmappable. See GH issue https://github.com/OP-TED/ePO/issues/726</t>
   </si>
   <si>
     <t>Instance Type (ontology Class)</t>
@@ -3724,7 +3159,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N234"/>
+  <dimension ref="A1:N180"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3776,71 +3211,71 @@
     </row>
     <row r="2" spans="1:14">
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>497</v>
+        <v>394</v>
       </c>
       <c r="H2" t="s">
-        <v>696</v>
+        <v>540</v>
       </c>
       <c r="I2" t="s">
-        <v>722</v>
+        <v>563</v>
       </c>
       <c r="J2" t="s">
-        <v>822</v>
+        <v>658</v>
       </c>
       <c r="K2" t="s">
-        <v>927</v>
+        <v>740</v>
       </c>
       <c r="L2" t="s">
-        <v>936</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>497</v>
+        <v>394</v>
       </c>
       <c r="H3" t="s">
-        <v>697</v>
+        <v>541</v>
       </c>
       <c r="I3" t="s">
-        <v>723</v>
+        <v>564</v>
       </c>
       <c r="J3" t="s">
-        <v>823</v>
+        <v>659</v>
       </c>
       <c r="K3" t="s">
-        <v>927</v>
+        <v>740</v>
       </c>
       <c r="L3" t="s">
-        <v>937</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="C4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>497</v>
+        <v>394</v>
       </c>
       <c r="H4" t="s">
-        <v>698</v>
+        <v>542</v>
       </c>
       <c r="I4" t="s">
-        <v>724</v>
+        <v>565</v>
       </c>
       <c r="J4" t="s">
-        <v>824</v>
+        <v>660</v>
       </c>
       <c r="K4" t="s">
-        <v>927</v>
+        <v>740</v>
       </c>
       <c r="L4" t="s">
-        <v>938</v>
+        <v>751</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3848,16 +3283,16 @@
         <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>498</v>
+        <v>395</v>
       </c>
       <c r="K5" t="s">
-        <v>928</v>
+        <v>741</v>
       </c>
       <c r="L5" t="s">
-        <v>939</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3865,16 +3300,16 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>499</v>
+        <v>396</v>
       </c>
       <c r="K6" t="s">
-        <v>928</v>
+        <v>741</v>
       </c>
       <c r="L6" t="s">
-        <v>940</v>
+        <v>753</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3885,16 +3320,16 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>500</v>
+        <v>397</v>
       </c>
       <c r="K7" t="s">
-        <v>928</v>
+        <v>741</v>
       </c>
       <c r="L7" t="s">
-        <v>940</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3905,16 +3340,16 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>501</v>
+        <v>398</v>
       </c>
       <c r="K8" t="s">
-        <v>928</v>
+        <v>741</v>
       </c>
       <c r="L8" t="s">
-        <v>940</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3922,16 +3357,16 @@
         <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>502</v>
+        <v>399</v>
       </c>
       <c r="K9" t="s">
-        <v>928</v>
+        <v>741</v>
       </c>
       <c r="L9" t="s">
-        <v>940</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3942,16 +3377,16 @@
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>503</v>
+        <v>400</v>
       </c>
       <c r="K10" t="s">
-        <v>928</v>
+        <v>741</v>
       </c>
       <c r="L10" t="s">
-        <v>940</v>
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3959,16 +3394,16 @@
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>504</v>
+        <v>401</v>
       </c>
       <c r="K11" t="s">
-        <v>928</v>
+        <v>741</v>
       </c>
       <c r="L11" t="s">
-        <v>940</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3979,16 +3414,16 @@
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>505</v>
+        <v>402</v>
       </c>
       <c r="K12" t="s">
-        <v>928</v>
+        <v>741</v>
       </c>
       <c r="L12" t="s">
-        <v>940</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3999,13 +3434,13 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>506</v>
+        <v>403</v>
       </c>
       <c r="K13" t="s">
-        <v>928</v>
+        <v>741</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4016,45 +3451,45 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="E14" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="G14" t="s">
-        <v>507</v>
+        <v>404</v>
       </c>
       <c r="K14" t="s">
-        <v>928</v>
+        <v>741</v>
       </c>
       <c r="L14" t="s">
-        <v>941</v>
+        <v>754</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="C15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>480</v>
+        <v>378</v>
       </c>
       <c r="G15" t="s">
-        <v>508</v>
+        <v>405</v>
       </c>
       <c r="H15" t="s">
-        <v>699</v>
+        <v>543</v>
       </c>
       <c r="I15" t="s">
-        <v>725</v>
+        <v>566</v>
       </c>
       <c r="J15" t="s">
-        <v>825</v>
+        <v>661</v>
       </c>
       <c r="K15" t="s">
-        <v>929</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4062,25 +3497,25 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="E16" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="G16" t="s">
-        <v>509</v>
+        <v>406</v>
       </c>
       <c r="I16" t="s">
-        <v>726</v>
+        <v>567</v>
       </c>
       <c r="J16" t="s">
-        <v>826</v>
+        <v>662</v>
       </c>
       <c r="K16" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4088,25 +3523,25 @@
         <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="G17" t="s">
-        <v>510</v>
+        <v>407</v>
       </c>
       <c r="I17" t="s">
-        <v>727</v>
+        <v>568</v>
       </c>
       <c r="J17" t="s">
-        <v>827</v>
+        <v>663</v>
       </c>
       <c r="K17" t="s">
-        <v>931</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4117,13 +3552,13 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>511</v>
+        <v>408</v>
       </c>
       <c r="K18" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4131,24 +3566,24 @@
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="K19" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="C20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>513</v>
+        <v>410</v>
       </c>
       <c r="K20" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -4159,554 +3594,554 @@
         <v>50</v>
       </c>
       <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" t="s">
+        <v>297</v>
+      </c>
+      <c r="G21" t="s">
+        <v>411</v>
+      </c>
+      <c r="K21" t="s">
+        <v>744</v>
+      </c>
+      <c r="L21" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G22" t="s">
+        <v>412</v>
+      </c>
+      <c r="I22" t="s">
+        <v>569</v>
+      </c>
+      <c r="J22" t="s">
+        <v>664</v>
+      </c>
+      <c r="K22" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
         <v>70</v>
       </c>
-      <c r="D21" t="s">
-        <v>255</v>
-      </c>
-      <c r="E21" t="s">
-        <v>397</v>
-      </c>
-      <c r="G21" t="s">
-        <v>514</v>
-      </c>
-      <c r="K21" t="s">
-        <v>931</v>
-      </c>
-      <c r="L21" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" t="s">
-        <v>256</v>
-      </c>
-      <c r="E22" t="s">
-        <v>398</v>
-      </c>
-      <c r="F22" t="s">
-        <v>481</v>
-      </c>
-      <c r="G22" t="s">
-        <v>515</v>
-      </c>
-      <c r="H22" t="s">
-        <v>700</v>
-      </c>
-      <c r="I22" t="s">
-        <v>728</v>
-      </c>
-      <c r="J22" t="s">
-        <v>828</v>
-      </c>
-      <c r="K22" t="s">
-        <v>929</v>
-      </c>
-      <c r="L22" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="C23" t="s">
-        <v>72</v>
+      <c r="D23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" t="s">
+        <v>299</v>
       </c>
       <c r="F23" t="s">
-        <v>482</v>
+        <v>380</v>
       </c>
       <c r="G23" t="s">
-        <v>516</v>
+        <v>413</v>
+      </c>
+      <c r="H23" t="s">
+        <v>544</v>
       </c>
       <c r="I23" t="s">
-        <v>729</v>
+        <v>570</v>
       </c>
       <c r="J23" t="s">
-        <v>829</v>
+        <v>665</v>
       </c>
       <c r="K23" t="s">
-        <v>930</v>
+        <v>742</v>
+      </c>
+      <c r="L23" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" t="s">
-        <v>257</v>
-      </c>
-      <c r="E24" t="s">
-        <v>399</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>483</v>
+        <v>381</v>
       </c>
       <c r="G24" t="s">
-        <v>517</v>
-      </c>
-      <c r="H24" t="s">
-        <v>701</v>
+        <v>414</v>
       </c>
       <c r="I24" t="s">
-        <v>730</v>
+        <v>571</v>
       </c>
       <c r="J24" t="s">
-        <v>830</v>
+        <v>666</v>
       </c>
       <c r="K24" t="s">
-        <v>929</v>
-      </c>
-      <c r="L24" t="s">
-        <v>944</v>
+        <v>743</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="C25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="E25" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F25" t="s">
-        <v>484</v>
+        <v>382</v>
       </c>
       <c r="G25" t="s">
-        <v>518</v>
+        <v>415</v>
       </c>
       <c r="H25" t="s">
-        <v>702</v>
+        <v>545</v>
       </c>
       <c r="I25" t="s">
-        <v>730</v>
+        <v>572</v>
       </c>
       <c r="J25" t="s">
-        <v>831</v>
+        <v>667</v>
       </c>
       <c r="K25" t="s">
-        <v>929</v>
+        <v>742</v>
       </c>
       <c r="L25" t="s">
-        <v>944</v>
+        <v>757</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="F26" t="s">
-        <v>485</v>
+        <v>383</v>
       </c>
       <c r="G26" t="s">
-        <v>519</v>
+        <v>416</v>
+      </c>
+      <c r="H26" t="s">
+        <v>546</v>
       </c>
       <c r="I26" t="s">
-        <v>731</v>
+        <v>572</v>
       </c>
       <c r="J26" t="s">
-        <v>832</v>
+        <v>668</v>
       </c>
       <c r="K26" t="s">
-        <v>932</v>
+        <v>742</v>
+      </c>
+      <c r="L26" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="C27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="F27" t="s">
-        <v>482</v>
+        <v>381</v>
       </c>
       <c r="G27" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="H27" t="s">
-        <v>703</v>
+        <v>547</v>
       </c>
       <c r="I27" t="s">
-        <v>732</v>
+        <v>573</v>
       </c>
       <c r="J27" t="s">
-        <v>833</v>
+        <v>669</v>
       </c>
       <c r="K27" t="s">
-        <v>929</v>
+        <v>742</v>
       </c>
       <c r="L27" t="s">
-        <v>944</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="C28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="G28" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
       <c r="K28" t="s">
-        <v>933</v>
+        <v>746</v>
       </c>
       <c r="L28" t="s">
-        <v>945</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
       <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" t="s">
-        <v>486</v>
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" t="s">
+        <v>304</v>
       </c>
       <c r="G29" t="s">
-        <v>522</v>
-      </c>
-      <c r="I29" t="s">
-        <v>733</v>
-      </c>
-      <c r="J29" t="s">
-        <v>834</v>
+        <v>419</v>
       </c>
       <c r="K29" t="s">
-        <v>930</v>
+        <v>747</v>
+      </c>
+      <c r="L29" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" t="s">
+        <v>384</v>
+      </c>
+      <c r="G30" t="s">
+        <v>420</v>
+      </c>
+      <c r="I30" t="s">
+        <v>574</v>
+      </c>
+      <c r="J30" t="s">
+        <v>670</v>
+      </c>
+      <c r="K30" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
         <v>78</v>
       </c>
-      <c r="G30" t="s">
-        <v>522</v>
-      </c>
-      <c r="I30" t="s">
-        <v>734</v>
-      </c>
-      <c r="J30" t="s">
-        <v>835</v>
-      </c>
-      <c r="K30" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" t="s">
+        <v>305</v>
+      </c>
+      <c r="G31" t="s">
+        <v>421</v>
+      </c>
+      <c r="K31" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s">
+        <v>420</v>
+      </c>
+      <c r="I32" t="s">
+        <v>575</v>
+      </c>
+      <c r="J32" t="s">
+        <v>671</v>
+      </c>
+      <c r="K32" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
         <v>79</v>
       </c>
-      <c r="D31" t="s">
-        <v>262</v>
-      </c>
-      <c r="E31" t="s">
-        <v>404</v>
-      </c>
-      <c r="F31" t="s">
-        <v>487</v>
-      </c>
-      <c r="G31" t="s">
-        <v>523</v>
-      </c>
-      <c r="I31" t="s">
-        <v>735</v>
-      </c>
-      <c r="J31" t="s">
-        <v>836</v>
-      </c>
-      <c r="K31" t="s">
-        <v>930</v>
-      </c>
-      <c r="L31" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" t="s">
-        <v>263</v>
-      </c>
-      <c r="E32" t="s">
-        <v>405</v>
-      </c>
-      <c r="G32" t="s">
-        <v>524</v>
-      </c>
-      <c r="K32" t="s">
-        <v>934</v>
-      </c>
-      <c r="L32" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="C33" t="s">
-        <v>81</v>
+      <c r="D33" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" t="s">
+        <v>306</v>
       </c>
       <c r="G33" t="s">
-        <v>525</v>
+        <v>422</v>
       </c>
       <c r="K33" t="s">
-        <v>930</v>
+        <v>748</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="C34" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" t="s">
+        <v>307</v>
+      </c>
+      <c r="F34" t="s">
+        <v>385</v>
       </c>
       <c r="G34" t="s">
-        <v>526</v>
+        <v>423</v>
+      </c>
+      <c r="I34" t="s">
+        <v>576</v>
+      </c>
+      <c r="J34" t="s">
+        <v>672</v>
       </c>
       <c r="K34" t="s">
-        <v>930</v>
+        <v>743</v>
+      </c>
+      <c r="L34" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="C35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" t="s">
-        <v>264</v>
-      </c>
-      <c r="E35" t="s">
-        <v>406</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>527</v>
-      </c>
-      <c r="I35" t="s">
-        <v>736</v>
-      </c>
-      <c r="J35" t="s">
-        <v>837</v>
+        <v>424</v>
       </c>
       <c r="K35" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
       <c r="C36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" t="s">
-        <v>265</v>
-      </c>
-      <c r="E36" t="s">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s">
-        <v>528</v>
+        <v>425</v>
       </c>
       <c r="K36" t="s">
-        <v>935</v>
+        <v>743</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="C37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="E37" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="G37" t="s">
-        <v>529</v>
+        <v>426</v>
       </c>
       <c r="I37" t="s">
-        <v>737</v>
+        <v>577</v>
       </c>
       <c r="J37" t="s">
-        <v>838</v>
+        <v>673</v>
       </c>
       <c r="K37" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="C38" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" t="s">
+        <v>309</v>
       </c>
       <c r="G38" t="s">
-        <v>530</v>
+        <v>427</v>
+      </c>
+      <c r="I38" t="s">
+        <v>578</v>
+      </c>
+      <c r="J38" t="s">
+        <v>674</v>
       </c>
       <c r="K38" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="C39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" t="s">
-        <v>267</v>
-      </c>
-      <c r="E39" t="s">
-        <v>409</v>
-      </c>
-      <c r="F39" t="s">
-        <v>488</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s">
-        <v>531</v>
-      </c>
-      <c r="I39" t="s">
-        <v>735</v>
-      </c>
-      <c r="J39" t="s">
-        <v>839</v>
+        <v>428</v>
       </c>
       <c r="K39" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="B40" t="s">
-        <v>44</v>
-      </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="E40" t="s">
-        <v>410</v>
+        <v>310</v>
+      </c>
+      <c r="F40" t="s">
+        <v>386</v>
       </c>
       <c r="G40" t="s">
-        <v>532</v>
+        <v>429</v>
+      </c>
+      <c r="I40" t="s">
+        <v>576</v>
+      </c>
+      <c r="J40" t="s">
+        <v>675</v>
       </c>
       <c r="K40" t="s">
-        <v>935</v>
+        <v>743</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="C41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="F41" t="s">
-        <v>486</v>
+        <v>384</v>
       </c>
       <c r="G41" t="s">
-        <v>533</v>
+        <v>430</v>
       </c>
       <c r="I41" t="s">
-        <v>738</v>
+        <v>579</v>
       </c>
       <c r="J41" t="s">
-        <v>840</v>
+        <v>676</v>
       </c>
       <c r="K41" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="C42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="F42" t="s">
-        <v>486</v>
+        <v>384</v>
       </c>
       <c r="G42" t="s">
-        <v>534</v>
+        <v>431</v>
       </c>
       <c r="I42" t="s">
-        <v>738</v>
+        <v>579</v>
       </c>
       <c r="J42" t="s">
-        <v>841</v>
+        <v>677</v>
       </c>
       <c r="K42" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="C43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="E43" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="F43" t="s">
-        <v>485</v>
+        <v>379</v>
       </c>
       <c r="G43" t="s">
-        <v>535</v>
+        <v>432</v>
       </c>
       <c r="I43" t="s">
-        <v>739</v>
+        <v>580</v>
       </c>
       <c r="J43" t="s">
-        <v>842</v>
+        <v>678</v>
       </c>
       <c r="K43" t="s">
-        <v>928</v>
+        <v>741</v>
       </c>
       <c r="L43" t="s">
-        <v>948</v>
+        <v>761</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="C44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G44" t="s">
-        <v>536</v>
+        <v>433</v>
       </c>
       <c r="K44" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -4714,94 +4149,94 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="F45" t="s">
-        <v>485</v>
+        <v>379</v>
       </c>
       <c r="G45" t="s">
-        <v>537</v>
+        <v>434</v>
       </c>
       <c r="I45" t="s">
-        <v>739</v>
+        <v>580</v>
       </c>
       <c r="J45" t="s">
-        <v>843</v>
+        <v>679</v>
       </c>
       <c r="K45" t="s">
-        <v>928</v>
+        <v>741</v>
       </c>
       <c r="L45" t="s">
-        <v>948</v>
+        <v>761</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="C46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="E46" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="F46" t="s">
-        <v>489</v>
+        <v>387</v>
       </c>
       <c r="G46" t="s">
-        <v>538</v>
+        <v>435</v>
       </c>
       <c r="I46" t="s">
-        <v>740</v>
+        <v>581</v>
       </c>
       <c r="J46" t="s">
-        <v>844</v>
+        <v>680</v>
       </c>
       <c r="K46" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="C47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G47" t="s">
-        <v>539</v>
+        <v>436</v>
       </c>
       <c r="K47" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="C48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="E48" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="F48" t="s">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="G48" t="s">
-        <v>540</v>
+        <v>437</v>
       </c>
       <c r="I48" t="s">
-        <v>741</v>
+        <v>582</v>
       </c>
       <c r="J48" t="s">
-        <v>845</v>
+        <v>681</v>
       </c>
       <c r="K48" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -4809,2270 +4244,2351 @@
         <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>491</v>
+        <v>389</v>
       </c>
       <c r="G49" t="s">
-        <v>541</v>
+        <v>438</v>
       </c>
       <c r="I49" t="s">
-        <v>742</v>
+        <v>583</v>
       </c>
       <c r="J49" t="s">
-        <v>846</v>
+        <v>682</v>
       </c>
       <c r="K49" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="C50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="F50" t="s">
-        <v>491</v>
+        <v>389</v>
       </c>
       <c r="G50" t="s">
-        <v>542</v>
+        <v>439</v>
       </c>
       <c r="H50" t="s">
-        <v>704</v>
+        <v>548</v>
       </c>
       <c r="I50" t="s">
+        <v>584</v>
+      </c>
+      <c r="J50" t="s">
+        <v>683</v>
+      </c>
+      <c r="K50" t="s">
         <v>743</v>
-      </c>
-      <c r="J50" t="s">
-        <v>847</v>
-      </c>
-      <c r="K50" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="C51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>491</v>
+        <v>389</v>
       </c>
       <c r="G51" t="s">
-        <v>543</v>
+        <v>440</v>
       </c>
       <c r="I51" t="s">
-        <v>742</v>
+        <v>583</v>
       </c>
       <c r="J51" t="s">
-        <v>846</v>
+        <v>682</v>
       </c>
       <c r="K51" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="C52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="E52" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="F52" t="s">
-        <v>491</v>
+        <v>389</v>
       </c>
       <c r="G52" t="s">
-        <v>544</v>
+        <v>441</v>
       </c>
       <c r="H52" t="s">
-        <v>704</v>
+        <v>548</v>
       </c>
       <c r="I52" t="s">
+        <v>584</v>
+      </c>
+      <c r="J52" t="s">
+        <v>684</v>
+      </c>
+      <c r="K52" t="s">
         <v>743</v>
-      </c>
-      <c r="J52" t="s">
-        <v>848</v>
-      </c>
-      <c r="K52" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="C53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>492</v>
+        <v>390</v>
       </c>
       <c r="G53" t="s">
-        <v>545</v>
+        <v>442</v>
       </c>
       <c r="I53" t="s">
-        <v>744</v>
+        <v>585</v>
       </c>
       <c r="J53" t="s">
-        <v>849</v>
+        <v>685</v>
       </c>
       <c r="K53" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="C54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="G54" t="s">
-        <v>546</v>
+        <v>443</v>
       </c>
       <c r="I54" t="s">
-        <v>745</v>
+        <v>586</v>
       </c>
       <c r="J54" t="s">
-        <v>850</v>
+        <v>686</v>
       </c>
       <c r="K54" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="C55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D55" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="E55" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="F55" t="s">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="G55" t="s">
-        <v>547</v>
+        <v>444</v>
       </c>
       <c r="I55" t="s">
-        <v>746</v>
+        <v>587</v>
       </c>
       <c r="J55" t="s">
-        <v>851</v>
+        <v>687</v>
       </c>
       <c r="K55" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="C56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D56" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="E56" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="F56" t="s">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="G56" t="s">
-        <v>548</v>
+        <v>445</v>
       </c>
       <c r="I56" t="s">
-        <v>746</v>
+        <v>587</v>
       </c>
       <c r="J56" t="s">
-        <v>851</v>
+        <v>687</v>
       </c>
       <c r="K56" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="C57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D57" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="E57" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="F57" t="s">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="G57" t="s">
-        <v>549</v>
+        <v>446</v>
       </c>
       <c r="I57" t="s">
-        <v>747</v>
+        <v>588</v>
       </c>
       <c r="J57" t="s">
-        <v>851</v>
+        <v>687</v>
       </c>
       <c r="K57" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="C58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="E58" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="F58" t="s">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="G58" t="s">
-        <v>550</v>
+        <v>447</v>
       </c>
       <c r="I58" t="s">
-        <v>747</v>
+        <v>588</v>
       </c>
       <c r="J58" t="s">
-        <v>852</v>
+        <v>688</v>
       </c>
       <c r="K58" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="C59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="E59" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="F59" t="s">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="G59" t="s">
-        <v>550</v>
+        <v>447</v>
       </c>
       <c r="I59" t="s">
-        <v>746</v>
+        <v>587</v>
       </c>
       <c r="J59" t="s">
-        <v>851</v>
+        <v>687</v>
       </c>
       <c r="K59" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="C60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="E60" t="s">
-        <v>421</v>
+        <v>321</v>
       </c>
       <c r="F60" t="s">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="G60" t="s">
-        <v>551</v>
+        <v>448</v>
       </c>
       <c r="I60" t="s">
-        <v>747</v>
+        <v>588</v>
       </c>
       <c r="J60" t="s">
-        <v>853</v>
+        <v>689</v>
       </c>
       <c r="K60" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="C61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D61" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="E61" t="s">
-        <v>421</v>
+        <v>321</v>
       </c>
       <c r="F61" t="s">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="G61" t="s">
-        <v>551</v>
+        <v>448</v>
       </c>
       <c r="I61" t="s">
-        <v>747</v>
+        <v>588</v>
       </c>
       <c r="J61" t="s">
-        <v>851</v>
+        <v>687</v>
       </c>
       <c r="K61" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="C62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="E62" t="s">
-        <v>422</v>
+        <v>322</v>
       </c>
       <c r="F62" t="s">
-        <v>492</v>
+        <v>390</v>
       </c>
       <c r="G62" t="s">
-        <v>552</v>
+        <v>449</v>
       </c>
       <c r="I62" t="s">
-        <v>748</v>
+        <v>589</v>
       </c>
       <c r="J62" t="s">
-        <v>854</v>
+        <v>690</v>
       </c>
       <c r="K62" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="C63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="E63" t="s">
-        <v>422</v>
+        <v>322</v>
       </c>
       <c r="F63" t="s">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="G63" t="s">
-        <v>552</v>
+        <v>449</v>
       </c>
       <c r="I63" t="s">
-        <v>749</v>
+        <v>590</v>
       </c>
       <c r="J63" t="s">
-        <v>855</v>
+        <v>691</v>
       </c>
       <c r="K63" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="C64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D64" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="E64" t="s">
-        <v>423</v>
+        <v>323</v>
       </c>
       <c r="F64" t="s">
-        <v>492</v>
+        <v>390</v>
       </c>
       <c r="G64" t="s">
-        <v>553</v>
+        <v>450</v>
       </c>
       <c r="I64" t="s">
-        <v>750</v>
+        <v>591</v>
       </c>
       <c r="J64" t="s">
-        <v>856</v>
+        <v>692</v>
       </c>
       <c r="K64" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
       <c r="L64" t="s">
-        <v>949</v>
+        <v>762</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="C65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="E65" t="s">
-        <v>423</v>
+        <v>323</v>
       </c>
       <c r="F65" t="s">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="G65" t="s">
-        <v>553</v>
+        <v>450</v>
       </c>
       <c r="I65" t="s">
-        <v>751</v>
+        <v>592</v>
       </c>
       <c r="J65" t="s">
-        <v>857</v>
+        <v>693</v>
       </c>
       <c r="K65" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
       <c r="L65" t="s">
-        <v>949</v>
+        <v>762</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="C66" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="E66" t="s">
-        <v>424</v>
+        <v>324</v>
       </c>
       <c r="F66" t="s">
-        <v>485</v>
+        <v>379</v>
       </c>
       <c r="G66" t="s">
-        <v>554</v>
+        <v>451</v>
       </c>
       <c r="I66" t="s">
-        <v>752</v>
+        <v>593</v>
       </c>
       <c r="J66" t="s">
-        <v>858</v>
+        <v>694</v>
       </c>
       <c r="K66" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="C67" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="E67" t="s">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="F67" t="s">
-        <v>485</v>
+        <v>379</v>
       </c>
       <c r="G67" t="s">
-        <v>555</v>
+        <v>452</v>
       </c>
       <c r="I67" t="s">
-        <v>753</v>
+        <v>594</v>
       </c>
       <c r="J67" t="s">
-        <v>859</v>
+        <v>695</v>
       </c>
       <c r="K67" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="C68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G68" t="s">
-        <v>556</v>
+        <v>453</v>
       </c>
       <c r="K68" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="C69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="E69" t="s">
-        <v>426</v>
+        <v>326</v>
       </c>
       <c r="F69" t="s">
-        <v>494</v>
+        <v>392</v>
       </c>
       <c r="G69" t="s">
-        <v>557</v>
+        <v>454</v>
       </c>
       <c r="I69" t="s">
-        <v>754</v>
+        <v>595</v>
       </c>
       <c r="J69" t="s">
-        <v>860</v>
+        <v>696</v>
       </c>
       <c r="K69" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="C70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="E70" t="s">
-        <v>427</v>
+        <v>327</v>
       </c>
       <c r="F70" t="s">
-        <v>494</v>
+        <v>392</v>
       </c>
       <c r="G70" t="s">
-        <v>558</v>
+        <v>455</v>
       </c>
       <c r="I70" t="s">
-        <v>754</v>
+        <v>595</v>
       </c>
       <c r="J70" t="s">
-        <v>861</v>
+        <v>697</v>
       </c>
       <c r="K70" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="C71" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D71" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="E71" t="s">
-        <v>428</v>
+        <v>328</v>
       </c>
       <c r="F71" t="s">
-        <v>495</v>
+        <v>393</v>
       </c>
       <c r="G71" t="s">
-        <v>559</v>
+        <v>456</v>
       </c>
       <c r="I71" t="s">
-        <v>755</v>
+        <v>596</v>
       </c>
       <c r="J71" t="s">
-        <v>862</v>
+        <v>698</v>
       </c>
       <c r="K71" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="C72" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D72" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="E72" t="s">
-        <v>429</v>
+        <v>329</v>
       </c>
       <c r="F72" t="s">
-        <v>494</v>
+        <v>392</v>
       </c>
       <c r="G72" t="s">
-        <v>560</v>
+        <v>457</v>
       </c>
       <c r="I72" t="s">
-        <v>756</v>
+        <v>597</v>
       </c>
       <c r="J72" t="s">
-        <v>863</v>
+        <v>699</v>
       </c>
       <c r="K72" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="C73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D73" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="E73" t="s">
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="F73" t="s">
-        <v>489</v>
+        <v>387</v>
       </c>
       <c r="G73" t="s">
-        <v>561</v>
+        <v>458</v>
       </c>
       <c r="I73" t="s">
-        <v>740</v>
+        <v>581</v>
       </c>
       <c r="J73" t="s">
-        <v>864</v>
+        <v>700</v>
       </c>
       <c r="K73" t="s">
-        <v>930</v>
+        <v>743</v>
       </c>
     </row>
     <row r="74" spans="1:12">
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
       <c r="C74" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="D74" t="s">
+        <v>234</v>
+      </c>
+      <c r="E74" t="s">
+        <v>331</v>
       </c>
       <c r="G74" t="s">
-        <v>562</v>
+        <v>459</v>
       </c>
       <c r="K74" t="s">
-        <v>930</v>
+        <v>746</v>
+      </c>
+      <c r="L74" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="C75" t="s">
+        <v>117</v>
+      </c>
+      <c r="G75" t="s">
+        <v>460</v>
+      </c>
+      <c r="I75" t="s">
+        <v>598</v>
+      </c>
+      <c r="J75" t="s">
+        <v>701</v>
+      </c>
+      <c r="K75" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" t="s">
+        <v>118</v>
+      </c>
+      <c r="G76" t="s">
+        <v>461</v>
+      </c>
+      <c r="I76" t="s">
+        <v>599</v>
+      </c>
+      <c r="J76" t="s">
+        <v>702</v>
+      </c>
+      <c r="K76" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="C77" t="s">
         <v>119</v>
       </c>
-      <c r="G75" t="s">
-        <v>563</v>
-      </c>
-      <c r="K75" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="C76" t="s">
-        <v>120</v>
-      </c>
-      <c r="G76" t="s">
-        <v>564</v>
-      </c>
-      <c r="I76" t="s">
-        <v>757</v>
-      </c>
-      <c r="J76" t="s">
-        <v>865</v>
-      </c>
-      <c r="K76" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" t="s">
-        <v>47</v>
-      </c>
-      <c r="C77" t="s">
-        <v>121</v>
+      <c r="D77" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" t="s">
+        <v>332</v>
       </c>
       <c r="G77" t="s">
-        <v>565</v>
+        <v>462</v>
+      </c>
+      <c r="H77" t="s">
+        <v>549</v>
       </c>
       <c r="I77" t="s">
-        <v>758</v>
+        <v>600</v>
       </c>
       <c r="J77" t="s">
-        <v>866</v>
+        <v>703</v>
       </c>
       <c r="K77" t="s">
-        <v>929</v>
+        <v>744</v>
+      </c>
+      <c r="L77" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="C78" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="E78" t="s">
-        <v>431</v>
+        <v>332</v>
       </c>
       <c r="G78" t="s">
-        <v>566</v>
+        <v>462</v>
       </c>
       <c r="H78" t="s">
-        <v>705</v>
+        <v>549</v>
       </c>
       <c r="I78" t="s">
-        <v>759</v>
+        <v>601</v>
       </c>
       <c r="J78" t="s">
-        <v>867</v>
+        <v>704</v>
       </c>
       <c r="K78" t="s">
-        <v>931</v>
+        <v>744</v>
       </c>
       <c r="L78" t="s">
-        <v>950</v>
+        <v>765</v>
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" t="s">
-        <v>48</v>
-      </c>
-      <c r="B79" t="s">
-        <v>52</v>
-      </c>
       <c r="C79" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="E79" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
       <c r="G79" t="s">
-        <v>567</v>
-      </c>
-      <c r="H79" t="s">
-        <v>706</v>
-      </c>
-      <c r="I79" t="s">
-        <v>760</v>
-      </c>
-      <c r="J79" t="s">
-        <v>868</v>
+        <v>463</v>
       </c>
       <c r="K79" t="s">
-        <v>934</v>
+        <v>746</v>
       </c>
       <c r="L79" t="s">
-        <v>951</v>
+        <v>766</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="C80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D80" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="E80" t="s">
-        <v>431</v>
+        <v>334</v>
       </c>
       <c r="G80" t="s">
-        <v>566</v>
-      </c>
-      <c r="H80" t="s">
-        <v>705</v>
-      </c>
-      <c r="I80" t="s">
-        <v>761</v>
-      </c>
-      <c r="J80" t="s">
-        <v>869</v>
+        <v>464</v>
       </c>
       <c r="K80" t="s">
-        <v>931</v>
+        <v>746</v>
       </c>
       <c r="L80" t="s">
-        <v>952</v>
+        <v>766</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B81" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C81" t="s">
-        <v>123</v>
-      </c>
-      <c r="D81" t="s">
-        <v>290</v>
-      </c>
-      <c r="E81" t="s">
-        <v>432</v>
+        <v>122</v>
       </c>
       <c r="G81" t="s">
-        <v>567</v>
+        <v>465</v>
       </c>
       <c r="I81" t="s">
-        <v>762</v>
+        <v>602</v>
       </c>
       <c r="J81" t="s">
-        <v>870</v>
+        <v>702</v>
       </c>
       <c r="K81" t="s">
-        <v>934</v>
-      </c>
-      <c r="L81" t="s">
-        <v>951</v>
+        <v>742</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="C82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D82" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="E82" t="s">
-        <v>433</v>
+        <v>332</v>
       </c>
       <c r="G82" t="s">
-        <v>568</v>
+        <v>466</v>
+      </c>
+      <c r="H82" t="s">
+        <v>549</v>
+      </c>
+      <c r="I82" t="s">
+        <v>603</v>
+      </c>
+      <c r="J82" t="s">
+        <v>703</v>
       </c>
       <c r="K82" t="s">
-        <v>933</v>
+        <v>744</v>
       </c>
       <c r="L82" t="s">
-        <v>953</v>
+        <v>767</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="C83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="E83" t="s">
-        <v>434</v>
+        <v>332</v>
       </c>
       <c r="G83" t="s">
-        <v>569</v>
+        <v>466</v>
+      </c>
+      <c r="H83" t="s">
+        <v>549</v>
+      </c>
+      <c r="I83" t="s">
+        <v>604</v>
+      </c>
+      <c r="J83" t="s">
+        <v>704</v>
       </c>
       <c r="K83" t="s">
-        <v>933</v>
+        <v>744</v>
       </c>
       <c r="L83" t="s">
-        <v>953</v>
+        <v>768</v>
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" t="s">
-        <v>47</v>
-      </c>
       <c r="C84" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="D84" t="s">
+        <v>239</v>
+      </c>
+      <c r="E84" t="s">
+        <v>335</v>
       </c>
       <c r="G84" t="s">
-        <v>570</v>
-      </c>
-      <c r="I84" t="s">
-        <v>763</v>
-      </c>
-      <c r="J84" t="s">
-        <v>866</v>
+        <v>467</v>
       </c>
       <c r="K84" t="s">
-        <v>929</v>
+        <v>746</v>
+      </c>
+      <c r="L84" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="C85" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D85" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="E85" t="s">
-        <v>431</v>
+        <v>336</v>
       </c>
       <c r="G85" t="s">
-        <v>571</v>
-      </c>
-      <c r="H85" t="s">
-        <v>705</v>
-      </c>
-      <c r="I85" t="s">
-        <v>764</v>
-      </c>
-      <c r="J85" t="s">
-        <v>867</v>
+        <v>468</v>
       </c>
       <c r="K85" t="s">
-        <v>931</v>
+        <v>746</v>
       </c>
       <c r="L85" t="s">
-        <v>954</v>
+        <v>766</v>
       </c>
     </row>
     <row r="86" spans="1:12">
+      <c r="A86" t="s">
+        <v>47</v>
+      </c>
       <c r="C86" t="s">
-        <v>127</v>
-      </c>
-      <c r="D86" t="s">
-        <v>293</v>
-      </c>
-      <c r="E86" t="s">
-        <v>431</v>
+        <v>126</v>
       </c>
       <c r="G86" t="s">
-        <v>571</v>
-      </c>
-      <c r="H86" t="s">
-        <v>705</v>
+        <v>469</v>
       </c>
       <c r="I86" t="s">
-        <v>765</v>
+        <v>605</v>
       </c>
       <c r="J86" t="s">
-        <v>869</v>
+        <v>702</v>
       </c>
       <c r="K86" t="s">
-        <v>931</v>
-      </c>
-      <c r="L86" t="s">
-        <v>955</v>
+        <v>742</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="C87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D87" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="E87" t="s">
-        <v>435</v>
+        <v>332</v>
       </c>
       <c r="G87" t="s">
-        <v>572</v>
+        <v>470</v>
+      </c>
+      <c r="H87" t="s">
+        <v>549</v>
+      </c>
+      <c r="I87" t="s">
+        <v>606</v>
+      </c>
+      <c r="J87" t="s">
+        <v>703</v>
       </c>
       <c r="K87" t="s">
-        <v>933</v>
+        <v>744</v>
       </c>
       <c r="L87" t="s">
-        <v>953</v>
+        <v>769</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="C88" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D88" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="E88" t="s">
-        <v>436</v>
+        <v>332</v>
       </c>
       <c r="G88" t="s">
-        <v>573</v>
+        <v>470</v>
+      </c>
+      <c r="H88" t="s">
+        <v>549</v>
+      </c>
+      <c r="I88" t="s">
+        <v>607</v>
+      </c>
+      <c r="J88" t="s">
+        <v>704</v>
       </c>
       <c r="K88" t="s">
-        <v>933</v>
+        <v>744</v>
       </c>
       <c r="L88" t="s">
-        <v>953</v>
+        <v>770</v>
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" t="s">
-        <v>47</v>
-      </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="D89" t="s">
+        <v>242</v>
+      </c>
+      <c r="E89" t="s">
+        <v>337</v>
       </c>
       <c r="G89" t="s">
-        <v>574</v>
-      </c>
-      <c r="I89" t="s">
+        <v>471</v>
+      </c>
+      <c r="K89" t="s">
+        <v>746</v>
+      </c>
+      <c r="L89" t="s">
         <v>766</v>
-      </c>
-      <c r="J89" t="s">
-        <v>866</v>
-      </c>
-      <c r="K89" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="C90" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D90" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="E90" t="s">
-        <v>431</v>
+        <v>338</v>
       </c>
       <c r="G90" t="s">
-        <v>575</v>
-      </c>
-      <c r="H90" t="s">
-        <v>705</v>
-      </c>
-      <c r="I90" t="s">
-        <v>767</v>
-      </c>
-      <c r="J90" t="s">
-        <v>867</v>
+        <v>472</v>
       </c>
       <c r="K90" t="s">
-        <v>931</v>
+        <v>746</v>
       </c>
       <c r="L90" t="s">
-        <v>956</v>
+        <v>766</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="C91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D91" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="E91" t="s">
-        <v>431</v>
+        <v>332</v>
       </c>
       <c r="G91" t="s">
-        <v>575</v>
+        <v>473</v>
       </c>
       <c r="H91" t="s">
-        <v>705</v>
+        <v>550</v>
       </c>
       <c r="I91" t="s">
-        <v>768</v>
+        <v>608</v>
       </c>
       <c r="J91" t="s">
-        <v>869</v>
+        <v>702</v>
       </c>
       <c r="K91" t="s">
-        <v>931</v>
+        <v>742</v>
       </c>
       <c r="L91" t="s">
-        <v>957</v>
+        <v>771</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="C92" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D92" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="E92" t="s">
-        <v>437</v>
+        <v>332</v>
       </c>
       <c r="G92" t="s">
-        <v>576</v>
+        <v>473</v>
+      </c>
+      <c r="H92" t="s">
+        <v>551</v>
+      </c>
+      <c r="I92" t="s">
+        <v>609</v>
+      </c>
+      <c r="J92" t="s">
+        <v>703</v>
       </c>
       <c r="K92" t="s">
-        <v>933</v>
+        <v>744</v>
       </c>
       <c r="L92" t="s">
-        <v>953</v>
+        <v>772</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="C93" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D93" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="E93" t="s">
-        <v>438</v>
+        <v>332</v>
       </c>
       <c r="G93" t="s">
-        <v>577</v>
+        <v>473</v>
+      </c>
+      <c r="H93" t="s">
+        <v>551</v>
+      </c>
+      <c r="I93" t="s">
+        <v>610</v>
+      </c>
+      <c r="J93" t="s">
+        <v>704</v>
       </c>
       <c r="K93" t="s">
-        <v>933</v>
+        <v>744</v>
       </c>
       <c r="L93" t="s">
-        <v>953</v>
+        <v>773</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="C94" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D94" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="E94" t="s">
-        <v>431</v>
+        <v>332</v>
       </c>
       <c r="G94" t="s">
-        <v>578</v>
-      </c>
-      <c r="H94" t="s">
-        <v>707</v>
+        <v>474</v>
       </c>
       <c r="I94" t="s">
-        <v>769</v>
+        <v>611</v>
       </c>
       <c r="J94" t="s">
-        <v>866</v>
+        <v>702</v>
       </c>
       <c r="K94" t="s">
-        <v>929</v>
-      </c>
-      <c r="L94" t="s">
-        <v>958</v>
+        <v>742</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="C95" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D95" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="E95" t="s">
-        <v>431</v>
+        <v>332</v>
       </c>
       <c r="G95" t="s">
-        <v>578</v>
+        <v>474</v>
       </c>
       <c r="H95" t="s">
-        <v>708</v>
+        <v>552</v>
       </c>
       <c r="I95" t="s">
-        <v>770</v>
+        <v>612</v>
       </c>
       <c r="J95" t="s">
-        <v>867</v>
+        <v>703</v>
       </c>
       <c r="K95" t="s">
-        <v>931</v>
+        <v>744</v>
       </c>
       <c r="L95" t="s">
-        <v>959</v>
+        <v>774</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="C96" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D96" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="E96" t="s">
-        <v>431</v>
+        <v>332</v>
       </c>
       <c r="G96" t="s">
-        <v>578</v>
+        <v>474</v>
       </c>
       <c r="H96" t="s">
-        <v>708</v>
+        <v>552</v>
       </c>
       <c r="I96" t="s">
-        <v>771</v>
+        <v>613</v>
       </c>
       <c r="J96" t="s">
-        <v>869</v>
+        <v>704</v>
       </c>
       <c r="K96" t="s">
-        <v>931</v>
+        <v>744</v>
       </c>
       <c r="L96" t="s">
-        <v>960</v>
+        <v>775</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="C97" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D97" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="E97" t="s">
-        <v>431</v>
+        <v>339</v>
+      </c>
+      <c r="F97" t="s">
+        <v>387</v>
       </c>
       <c r="G97" t="s">
-        <v>579</v>
+        <v>475</v>
       </c>
       <c r="I97" t="s">
-        <v>772</v>
+        <v>614</v>
       </c>
       <c r="J97" t="s">
-        <v>866</v>
+        <v>705</v>
       </c>
       <c r="K97" t="s">
-        <v>929</v>
+        <v>745</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="C98" t="s">
-        <v>135</v>
-      </c>
-      <c r="D98" t="s">
-        <v>300</v>
-      </c>
-      <c r="E98" t="s">
-        <v>431</v>
+        <v>133</v>
       </c>
       <c r="G98" t="s">
-        <v>579</v>
-      </c>
-      <c r="H98" t="s">
-        <v>709</v>
+        <v>476</v>
       </c>
       <c r="I98" t="s">
-        <v>773</v>
+        <v>615</v>
       </c>
       <c r="J98" t="s">
-        <v>867</v>
+        <v>706</v>
       </c>
       <c r="K98" t="s">
-        <v>931</v>
-      </c>
-      <c r="L98" t="s">
-        <v>961</v>
+        <v>745</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="C99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D99" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="E99" t="s">
-        <v>431</v>
+        <v>340</v>
       </c>
       <c r="G99" t="s">
-        <v>579</v>
-      </c>
-      <c r="H99" t="s">
-        <v>709</v>
+        <v>477</v>
       </c>
       <c r="I99" t="s">
-        <v>774</v>
+        <v>616</v>
       </c>
       <c r="J99" t="s">
-        <v>869</v>
+        <v>707</v>
       </c>
       <c r="K99" t="s">
-        <v>931</v>
+        <v>745</v>
       </c>
       <c r="L99" t="s">
-        <v>962</v>
+        <v>776</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="C100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D100" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="E100" t="s">
-        <v>439</v>
-      </c>
-      <c r="F100" t="s">
-        <v>489</v>
+        <v>340</v>
       </c>
       <c r="G100" t="s">
-        <v>580</v>
+        <v>478</v>
       </c>
       <c r="I100" t="s">
-        <v>775</v>
+        <v>616</v>
       </c>
       <c r="J100" t="s">
-        <v>871</v>
+        <v>707</v>
       </c>
       <c r="K100" t="s">
-        <v>932</v>
+        <v>745</v>
+      </c>
+      <c r="L100" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="C101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G101" t="s">
-        <v>581</v>
+        <v>479</v>
+      </c>
+      <c r="I101" t="s">
+        <v>615</v>
+      </c>
+      <c r="J101" t="s">
+        <v>706</v>
       </c>
       <c r="K101" t="s">
-        <v>930</v>
+        <v>745</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="C102" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="D102" t="s">
+        <v>248</v>
+      </c>
+      <c r="E102" t="s">
+        <v>341</v>
       </c>
       <c r="G102" t="s">
-        <v>582</v>
+        <v>480</v>
+      </c>
+      <c r="H102" t="s">
+        <v>553</v>
       </c>
       <c r="I102" t="s">
-        <v>776</v>
+        <v>617</v>
       </c>
       <c r="J102" t="s">
-        <v>872</v>
+        <v>708</v>
       </c>
       <c r="K102" t="s">
-        <v>932</v>
+        <v>745</v>
+      </c>
+      <c r="L102" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="C103" t="s">
+        <v>137</v>
+      </c>
+      <c r="D103" t="s">
+        <v>248</v>
+      </c>
+      <c r="E103" t="s">
+        <v>341</v>
+      </c>
+      <c r="G103" t="s">
+        <v>480</v>
+      </c>
+      <c r="H103" t="s">
+        <v>554</v>
+      </c>
+      <c r="I103" t="s">
+        <v>617</v>
+      </c>
+      <c r="J103" t="s">
+        <v>709</v>
+      </c>
+      <c r="K103" t="s">
+        <v>745</v>
+      </c>
+      <c r="L103" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" t="s">
+        <v>138</v>
+      </c>
+      <c r="D104" t="s">
+        <v>249</v>
+      </c>
+      <c r="E104" t="s">
+        <v>342</v>
+      </c>
+      <c r="G104" t="s">
+        <v>481</v>
+      </c>
+      <c r="I104" t="s">
+        <v>618</v>
+      </c>
+      <c r="J104" t="s">
+        <v>710</v>
+      </c>
+      <c r="K104" t="s">
+        <v>745</v>
+      </c>
+      <c r="L104" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C105" t="s">
         <v>139</v>
       </c>
-      <c r="D103" t="s">
-        <v>302</v>
-      </c>
-      <c r="E103" t="s">
-        <v>440</v>
-      </c>
-      <c r="G103" t="s">
-        <v>583</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="D105" t="s">
+        <v>250</v>
+      </c>
+      <c r="E105" t="s">
+        <v>343</v>
+      </c>
+      <c r="G105" t="s">
+        <v>482</v>
+      </c>
+      <c r="I105" t="s">
+        <v>619</v>
+      </c>
+      <c r="J105" t="s">
+        <v>711</v>
+      </c>
+      <c r="K105" t="s">
+        <v>745</v>
+      </c>
+      <c r="L105" t="s">
         <v>777</v>
       </c>
-      <c r="J103" t="s">
-        <v>873</v>
-      </c>
-      <c r="K103" t="s">
-        <v>932</v>
-      </c>
-      <c r="L103" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="C104" t="s">
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" t="s">
         <v>140</v>
       </c>
-      <c r="D104" t="s">
-        <v>302</v>
-      </c>
-      <c r="E104" t="s">
-        <v>440</v>
-      </c>
-      <c r="G104" t="s">
-        <v>584</v>
-      </c>
-      <c r="I104" t="s">
+      <c r="D106" t="s">
+        <v>251</v>
+      </c>
+      <c r="E106" t="s">
+        <v>344</v>
+      </c>
+      <c r="G106" t="s">
+        <v>483</v>
+      </c>
+      <c r="I106" t="s">
+        <v>619</v>
+      </c>
+      <c r="J106" t="s">
+        <v>712</v>
+      </c>
+      <c r="K106" t="s">
+        <v>745</v>
+      </c>
+      <c r="L106" t="s">
         <v>777</v>
-      </c>
-      <c r="J104" t="s">
-        <v>873</v>
-      </c>
-      <c r="K104" t="s">
-        <v>932</v>
-      </c>
-      <c r="L104" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
-      <c r="C105" t="s">
-        <v>141</v>
-      </c>
-      <c r="G105" t="s">
-        <v>585</v>
-      </c>
-      <c r="I105" t="s">
-        <v>776</v>
-      </c>
-      <c r="J105" t="s">
-        <v>872</v>
-      </c>
-      <c r="K105" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="C106" t="s">
-        <v>142</v>
-      </c>
-      <c r="G106" t="s">
-        <v>586</v>
-      </c>
-      <c r="K106" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="C107" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="D107" t="s">
+        <v>252</v>
+      </c>
+      <c r="E107" t="s">
+        <v>345</v>
       </c>
       <c r="G107" t="s">
-        <v>587</v>
+        <v>484</v>
       </c>
       <c r="K107" t="s">
-        <v>930</v>
+        <v>745</v>
+      </c>
+      <c r="L107" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="C108" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G108" t="s">
-        <v>588</v>
+        <v>485</v>
       </c>
       <c r="K108" t="s">
-        <v>930</v>
+        <v>745</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="C109" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="D109" t="s">
+        <v>253</v>
+      </c>
+      <c r="E109" t="s">
+        <v>346</v>
       </c>
       <c r="G109" t="s">
-        <v>589</v>
+        <v>486</v>
+      </c>
+      <c r="I109" t="s">
+        <v>620</v>
+      </c>
+      <c r="J109" t="s">
+        <v>713</v>
       </c>
       <c r="K109" t="s">
-        <v>930</v>
+        <v>745</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="C110" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D110" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="E110" t="s">
-        <v>441</v>
+        <v>347</v>
       </c>
       <c r="G110" t="s">
-        <v>590</v>
-      </c>
-      <c r="H110" t="s">
-        <v>710</v>
+        <v>487</v>
       </c>
       <c r="I110" t="s">
-        <v>778</v>
+        <v>620</v>
       </c>
       <c r="J110" t="s">
-        <v>874</v>
+        <v>714</v>
       </c>
       <c r="K110" t="s">
-        <v>932</v>
-      </c>
-      <c r="L110" t="s">
-        <v>964</v>
+        <v>745</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="C111" t="s">
+        <v>145</v>
+      </c>
+      <c r="D111" t="s">
+        <v>255</v>
+      </c>
+      <c r="E111" t="s">
+        <v>332</v>
+      </c>
+      <c r="G111" t="s">
+        <v>488</v>
+      </c>
+      <c r="I111" t="s">
+        <v>621</v>
+      </c>
+      <c r="J111" t="s">
+        <v>702</v>
+      </c>
+      <c r="K111" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="C112" t="s">
+        <v>145</v>
+      </c>
+      <c r="D112" t="s">
+        <v>255</v>
+      </c>
+      <c r="E112" t="s">
+        <v>332</v>
+      </c>
+      <c r="G112" t="s">
+        <v>488</v>
+      </c>
+      <c r="I112" t="s">
+        <v>622</v>
+      </c>
+      <c r="J112" t="s">
+        <v>706</v>
+      </c>
+      <c r="K112" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12">
+      <c r="B113" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" t="s">
         <v>146</v>
       </c>
-      <c r="D111" t="s">
-        <v>303</v>
-      </c>
-      <c r="E111" t="s">
-        <v>441</v>
-      </c>
-      <c r="G111" t="s">
-        <v>590</v>
-      </c>
-      <c r="H111" t="s">
-        <v>711</v>
-      </c>
-      <c r="I111" t="s">
-        <v>778</v>
-      </c>
-      <c r="J111" t="s">
-        <v>875</v>
-      </c>
-      <c r="K111" t="s">
-        <v>932</v>
-      </c>
-      <c r="L111" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="A112" t="s">
-        <v>48</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="D113" t="s">
+        <v>256</v>
+      </c>
+      <c r="E113" t="s">
+        <v>297</v>
+      </c>
+      <c r="G113" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12">
+      <c r="C114" t="s">
+        <v>145</v>
+      </c>
+      <c r="D114" t="s">
+        <v>255</v>
+      </c>
+      <c r="E114" t="s">
+        <v>332</v>
+      </c>
+      <c r="G114" t="s">
+        <v>488</v>
+      </c>
+      <c r="I114" t="s">
+        <v>623</v>
+      </c>
+      <c r="J114" t="s">
+        <v>715</v>
+      </c>
+      <c r="K114" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12">
+      <c r="C115" t="s">
+        <v>145</v>
+      </c>
+      <c r="D115" t="s">
+        <v>255</v>
+      </c>
+      <c r="E115" t="s">
+        <v>332</v>
+      </c>
+      <c r="G115" t="s">
+        <v>488</v>
+      </c>
+      <c r="H115" t="s">
+        <v>555</v>
+      </c>
+      <c r="I115" t="s">
+        <v>624</v>
+      </c>
+      <c r="J115" t="s">
+        <v>703</v>
+      </c>
+      <c r="K115" t="s">
+        <v>744</v>
+      </c>
+      <c r="L115" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="C116" t="s">
+        <v>145</v>
+      </c>
+      <c r="D116" t="s">
+        <v>255</v>
+      </c>
+      <c r="E116" t="s">
+        <v>332</v>
+      </c>
+      <c r="G116" t="s">
+        <v>488</v>
+      </c>
+      <c r="H116" t="s">
+        <v>555</v>
+      </c>
+      <c r="I116" t="s">
+        <v>625</v>
+      </c>
+      <c r="J116" t="s">
+        <v>704</v>
+      </c>
+      <c r="K116" t="s">
+        <v>744</v>
+      </c>
+      <c r="L116" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12">
+      <c r="C117" t="s">
         <v>147</v>
       </c>
-      <c r="D112" t="s">
-        <v>304</v>
-      </c>
-      <c r="E112" t="s">
-        <v>442</v>
-      </c>
-      <c r="G112" t="s">
-        <v>591</v>
-      </c>
-      <c r="I112" t="s">
-        <v>779</v>
-      </c>
-      <c r="J112" t="s">
-        <v>876</v>
-      </c>
-      <c r="K112" t="s">
-        <v>932</v>
-      </c>
-      <c r="L112" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="A113" t="s">
-        <v>44</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="D117" t="s">
+        <v>257</v>
+      </c>
+      <c r="E117" t="s">
+        <v>332</v>
+      </c>
+      <c r="G117" t="s">
+        <v>490</v>
+      </c>
+      <c r="I117" t="s">
+        <v>626</v>
+      </c>
+      <c r="J117" t="s">
+        <v>702</v>
+      </c>
+      <c r="K117" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12">
+      <c r="C118" t="s">
+        <v>147</v>
+      </c>
+      <c r="D118" t="s">
+        <v>257</v>
+      </c>
+      <c r="E118" t="s">
+        <v>332</v>
+      </c>
+      <c r="G118" t="s">
+        <v>490</v>
+      </c>
+      <c r="I118" t="s">
+        <v>622</v>
+      </c>
+      <c r="J118" t="s">
+        <v>706</v>
+      </c>
+      <c r="K118" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12">
+      <c r="C119" t="s">
+        <v>147</v>
+      </c>
+      <c r="D119" t="s">
+        <v>257</v>
+      </c>
+      <c r="E119" t="s">
+        <v>332</v>
+      </c>
+      <c r="G119" t="s">
+        <v>490</v>
+      </c>
+      <c r="I119" t="s">
+        <v>627</v>
+      </c>
+      <c r="J119" t="s">
+        <v>716</v>
+      </c>
+      <c r="K119" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12">
+      <c r="C120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D120" t="s">
+        <v>257</v>
+      </c>
+      <c r="E120" t="s">
+        <v>332</v>
+      </c>
+      <c r="G120" t="s">
+        <v>490</v>
+      </c>
+      <c r="H120" t="s">
+        <v>556</v>
+      </c>
+      <c r="I120" t="s">
+        <v>628</v>
+      </c>
+      <c r="J120" t="s">
+        <v>703</v>
+      </c>
+      <c r="K120" t="s">
+        <v>744</v>
+      </c>
+      <c r="L120" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12">
+      <c r="C121" t="s">
+        <v>147</v>
+      </c>
+      <c r="D121" t="s">
+        <v>257</v>
+      </c>
+      <c r="E121" t="s">
+        <v>332</v>
+      </c>
+      <c r="G121" t="s">
+        <v>490</v>
+      </c>
+      <c r="H121" t="s">
+        <v>556</v>
+      </c>
+      <c r="I121" t="s">
+        <v>629</v>
+      </c>
+      <c r="J121" t="s">
+        <v>704</v>
+      </c>
+      <c r="K121" t="s">
+        <v>744</v>
+      </c>
+      <c r="L121" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12">
+      <c r="C122" t="s">
         <v>148</v>
       </c>
-      <c r="D113" t="s">
-        <v>305</v>
-      </c>
-      <c r="E113" t="s">
-        <v>443</v>
-      </c>
-      <c r="G113" t="s">
-        <v>592</v>
-      </c>
-      <c r="I113" t="s">
-        <v>780</v>
-      </c>
-      <c r="J113" t="s">
-        <v>877</v>
-      </c>
-      <c r="K113" t="s">
-        <v>932</v>
-      </c>
-      <c r="L113" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
-      <c r="A114" t="s">
-        <v>48</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="G122" t="s">
+        <v>491</v>
+      </c>
+      <c r="K122" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12">
+      <c r="C123" t="s">
         <v>149</v>
       </c>
-      <c r="D114" t="s">
-        <v>306</v>
-      </c>
-      <c r="E114" t="s">
-        <v>444</v>
-      </c>
-      <c r="G114" t="s">
-        <v>593</v>
-      </c>
-      <c r="I114" t="s">
-        <v>780</v>
-      </c>
-      <c r="J114" t="s">
-        <v>878</v>
-      </c>
-      <c r="K114" t="s">
-        <v>932</v>
-      </c>
-      <c r="L114" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="C115" t="s">
+      <c r="D123" t="s">
+        <v>258</v>
+      </c>
+      <c r="E123" t="s">
+        <v>332</v>
+      </c>
+      <c r="G123" t="s">
+        <v>492</v>
+      </c>
+      <c r="I123" t="s">
+        <v>630</v>
+      </c>
+      <c r="J123" t="s">
+        <v>717</v>
+      </c>
+      <c r="K123" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12">
+      <c r="C124" t="s">
+        <v>149</v>
+      </c>
+      <c r="D124" t="s">
+        <v>258</v>
+      </c>
+      <c r="E124" t="s">
+        <v>332</v>
+      </c>
+      <c r="G124" t="s">
+        <v>492</v>
+      </c>
+      <c r="I124" t="s">
+        <v>631</v>
+      </c>
+      <c r="J124" t="s">
+        <v>718</v>
+      </c>
+      <c r="K124" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12">
+      <c r="C125" t="s">
+        <v>149</v>
+      </c>
+      <c r="D125" t="s">
+        <v>258</v>
+      </c>
+      <c r="E125" t="s">
+        <v>332</v>
+      </c>
+      <c r="G125" t="s">
+        <v>492</v>
+      </c>
+      <c r="I125" t="s">
+        <v>632</v>
+      </c>
+      <c r="J125" t="s">
+        <v>719</v>
+      </c>
+      <c r="K125" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12">
+      <c r="C126" t="s">
+        <v>149</v>
+      </c>
+      <c r="D126" t="s">
+        <v>258</v>
+      </c>
+      <c r="E126" t="s">
+        <v>332</v>
+      </c>
+      <c r="G126" t="s">
+        <v>492</v>
+      </c>
+      <c r="H126" t="s">
+        <v>557</v>
+      </c>
+      <c r="I126" t="s">
+        <v>633</v>
+      </c>
+      <c r="J126" t="s">
+        <v>703</v>
+      </c>
+      <c r="K126" t="s">
+        <v>744</v>
+      </c>
+      <c r="L126" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12">
+      <c r="C127" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127" t="s">
+        <v>258</v>
+      </c>
+      <c r="E127" t="s">
+        <v>332</v>
+      </c>
+      <c r="G127" t="s">
+        <v>492</v>
+      </c>
+      <c r="H127" t="s">
+        <v>557</v>
+      </c>
+      <c r="I127" t="s">
+        <v>634</v>
+      </c>
+      <c r="J127" t="s">
+        <v>704</v>
+      </c>
+      <c r="K127" t="s">
+        <v>744</v>
+      </c>
+      <c r="L127" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12">
+      <c r="C128" t="s">
         <v>150</v>
       </c>
-      <c r="D115" t="s">
-        <v>307</v>
-      </c>
-      <c r="E115" t="s">
-        <v>445</v>
-      </c>
-      <c r="G115" t="s">
-        <v>594</v>
-      </c>
-      <c r="K115" t="s">
-        <v>932</v>
-      </c>
-      <c r="L115" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="C116" t="s">
+      <c r="D128" t="s">
+        <v>259</v>
+      </c>
+      <c r="E128" t="s">
+        <v>332</v>
+      </c>
+      <c r="G128" t="s">
+        <v>493</v>
+      </c>
+      <c r="I128" t="s">
+        <v>635</v>
+      </c>
+      <c r="J128" t="s">
+        <v>717</v>
+      </c>
+      <c r="K128" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="C129" t="s">
+        <v>150</v>
+      </c>
+      <c r="D129" t="s">
+        <v>259</v>
+      </c>
+      <c r="E129" t="s">
+        <v>332</v>
+      </c>
+      <c r="G129" t="s">
+        <v>493</v>
+      </c>
+      <c r="I129" t="s">
+        <v>631</v>
+      </c>
+      <c r="J129" t="s">
+        <v>718</v>
+      </c>
+      <c r="K129" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="C130" t="s">
+        <v>150</v>
+      </c>
+      <c r="D130" t="s">
+        <v>259</v>
+      </c>
+      <c r="E130" t="s">
+        <v>332</v>
+      </c>
+      <c r="G130" t="s">
+        <v>493</v>
+      </c>
+      <c r="I130" t="s">
+        <v>636</v>
+      </c>
+      <c r="J130" t="s">
+        <v>720</v>
+      </c>
+      <c r="K130" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="B131" t="s">
+        <v>49</v>
+      </c>
+      <c r="C131" t="s">
         <v>151</v>
       </c>
-      <c r="G116" t="s">
-        <v>595</v>
-      </c>
-      <c r="K116" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="C117" t="s">
+      <c r="D131" t="s">
+        <v>260</v>
+      </c>
+      <c r="E131" t="s">
+        <v>348</v>
+      </c>
+      <c r="G131" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="C132" t="s">
+        <v>150</v>
+      </c>
+      <c r="D132" t="s">
+        <v>259</v>
+      </c>
+      <c r="E132" t="s">
+        <v>332</v>
+      </c>
+      <c r="G132" t="s">
+        <v>493</v>
+      </c>
+      <c r="H132" t="s">
+        <v>558</v>
+      </c>
+      <c r="I132" t="s">
+        <v>637</v>
+      </c>
+      <c r="J132" t="s">
+        <v>703</v>
+      </c>
+      <c r="K132" t="s">
+        <v>744</v>
+      </c>
+      <c r="L132" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="B133" t="s">
+        <v>49</v>
+      </c>
+      <c r="C133" t="s">
         <v>152</v>
       </c>
-      <c r="D117" t="s">
-        <v>308</v>
-      </c>
-      <c r="E117" t="s">
-        <v>446</v>
-      </c>
-      <c r="G117" t="s">
-        <v>596</v>
-      </c>
-      <c r="I117" t="s">
-        <v>781</v>
-      </c>
-      <c r="J117" t="s">
-        <v>879</v>
-      </c>
-      <c r="K117" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="C118" t="s">
+      <c r="D133" t="s">
+        <v>261</v>
+      </c>
+      <c r="E133" t="s">
+        <v>349</v>
+      </c>
+      <c r="G133" t="s">
+        <v>495</v>
+      </c>
+      <c r="H133" t="s">
+        <v>559</v>
+      </c>
+      <c r="I133" t="s">
+        <v>638</v>
+      </c>
+      <c r="J133" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="C134" t="s">
+        <v>150</v>
+      </c>
+      <c r="D134" t="s">
+        <v>259</v>
+      </c>
+      <c r="E134" t="s">
+        <v>332</v>
+      </c>
+      <c r="G134" t="s">
+        <v>493</v>
+      </c>
+      <c r="H134" t="s">
+        <v>558</v>
+      </c>
+      <c r="I134" t="s">
+        <v>639</v>
+      </c>
+      <c r="J134" t="s">
+        <v>704</v>
+      </c>
+      <c r="K134" t="s">
+        <v>744</v>
+      </c>
+      <c r="L134" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="B135" t="s">
+        <v>49</v>
+      </c>
+      <c r="C135" t="s">
         <v>153</v>
       </c>
-      <c r="D118" t="s">
-        <v>309</v>
-      </c>
-      <c r="E118" t="s">
-        <v>447</v>
-      </c>
-      <c r="G118" t="s">
-        <v>597</v>
-      </c>
-      <c r="I118" t="s">
-        <v>781</v>
-      </c>
-      <c r="J118" t="s">
-        <v>880</v>
-      </c>
-      <c r="K118" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
-      <c r="C119" t="s">
+      <c r="D135" t="s">
+        <v>262</v>
+      </c>
+      <c r="E135" t="s">
+        <v>350</v>
+      </c>
+      <c r="G135" t="s">
+        <v>496</v>
+      </c>
+      <c r="H135" t="s">
+        <v>559</v>
+      </c>
+      <c r="I135" t="s">
+        <v>638</v>
+      </c>
+      <c r="J135" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="C136" t="s">
         <v>154</v>
       </c>
-      <c r="D119" t="s">
-        <v>310</v>
-      </c>
-      <c r="E119" t="s">
-        <v>431</v>
-      </c>
-      <c r="G119" t="s">
-        <v>598</v>
-      </c>
-      <c r="I119" t="s">
-        <v>782</v>
-      </c>
-      <c r="J119" t="s">
-        <v>866</v>
-      </c>
-      <c r="K119" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="C120" t="s">
+      <c r="D136" t="s">
+        <v>263</v>
+      </c>
+      <c r="E136" t="s">
+        <v>332</v>
+      </c>
+      <c r="G136" t="s">
+        <v>497</v>
+      </c>
+      <c r="I136" t="s">
+        <v>640</v>
+      </c>
+      <c r="J136" t="s">
+        <v>717</v>
+      </c>
+      <c r="K136" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="B137" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" t="s">
+        <v>155</v>
+      </c>
+      <c r="D137" t="s">
+        <v>264</v>
+      </c>
+      <c r="E137" t="s">
+        <v>351</v>
+      </c>
+      <c r="G137" t="s">
+        <v>498</v>
+      </c>
+      <c r="I137" t="s">
+        <v>641</v>
+      </c>
+      <c r="J137" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="B138" t="s">
+        <v>49</v>
+      </c>
+      <c r="C138" t="s">
+        <v>156</v>
+      </c>
+      <c r="D138" t="s">
+        <v>265</v>
+      </c>
+      <c r="E138" t="s">
+        <v>352</v>
+      </c>
+      <c r="G138" t="s">
+        <v>499</v>
+      </c>
+      <c r="H138" t="s">
+        <v>560</v>
+      </c>
+      <c r="I138" t="s">
+        <v>642</v>
+      </c>
+      <c r="J138" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="C139" t="s">
         <v>154</v>
       </c>
-      <c r="D120" t="s">
-        <v>310</v>
-      </c>
-      <c r="E120" t="s">
-        <v>431</v>
-      </c>
-      <c r="G120" t="s">
-        <v>598</v>
-      </c>
-      <c r="I120" t="s">
-        <v>783</v>
-      </c>
-      <c r="J120" t="s">
-        <v>872</v>
-      </c>
-      <c r="K120" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
-      <c r="B121" t="s">
-        <v>50</v>
-      </c>
-      <c r="C121" t="s">
-        <v>155</v>
-      </c>
-      <c r="D121" t="s">
-        <v>311</v>
-      </c>
-      <c r="E121" t="s">
-        <v>397</v>
-      </c>
-      <c r="G121" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="C122" t="s">
+      <c r="D139" t="s">
+        <v>263</v>
+      </c>
+      <c r="E139" t="s">
+        <v>332</v>
+      </c>
+      <c r="G139" t="s">
+        <v>497</v>
+      </c>
+      <c r="H139" t="s">
+        <v>561</v>
+      </c>
+      <c r="I139" t="s">
+        <v>643</v>
+      </c>
+      <c r="J139" t="s">
+        <v>703</v>
+      </c>
+      <c r="K139" t="s">
+        <v>744</v>
+      </c>
+      <c r="L139" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="B140" t="s">
+        <v>49</v>
+      </c>
+      <c r="C140" t="s">
+        <v>157</v>
+      </c>
+      <c r="D140" t="s">
+        <v>266</v>
+      </c>
+      <c r="E140" t="s">
+        <v>353</v>
+      </c>
+      <c r="G140" t="s">
+        <v>500</v>
+      </c>
+      <c r="H140" t="s">
+        <v>560</v>
+      </c>
+      <c r="I140" t="s">
+        <v>644</v>
+      </c>
+      <c r="J140" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="C141" t="s">
         <v>154</v>
       </c>
-      <c r="D122" t="s">
-        <v>310</v>
-      </c>
-      <c r="E122" t="s">
-        <v>431</v>
-      </c>
-      <c r="G122" t="s">
-        <v>598</v>
-      </c>
-      <c r="I122" t="s">
-        <v>784</v>
-      </c>
-      <c r="J122" t="s">
-        <v>881</v>
-      </c>
-      <c r="K122" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
-      <c r="C123" t="s">
-        <v>154</v>
-      </c>
-      <c r="D123" t="s">
-        <v>310</v>
-      </c>
-      <c r="E123" t="s">
-        <v>431</v>
-      </c>
-      <c r="G123" t="s">
-        <v>598</v>
-      </c>
-      <c r="H123" t="s">
-        <v>712</v>
-      </c>
-      <c r="I123" t="s">
-        <v>785</v>
-      </c>
-      <c r="J123" t="s">
-        <v>867</v>
-      </c>
-      <c r="K123" t="s">
-        <v>931</v>
-      </c>
-      <c r="L123" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
-      <c r="C124" t="s">
-        <v>154</v>
-      </c>
-      <c r="D124" t="s">
-        <v>310</v>
-      </c>
-      <c r="E124" t="s">
-        <v>431</v>
-      </c>
-      <c r="G124" t="s">
-        <v>598</v>
-      </c>
-      <c r="H124" t="s">
-        <v>712</v>
-      </c>
-      <c r="I124" t="s">
-        <v>786</v>
-      </c>
-      <c r="J124" t="s">
-        <v>869</v>
-      </c>
-      <c r="K124" t="s">
-        <v>931</v>
-      </c>
-      <c r="L124" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="C125" t="s">
-        <v>156</v>
-      </c>
-      <c r="D125" t="s">
-        <v>312</v>
-      </c>
-      <c r="E125" t="s">
-        <v>431</v>
-      </c>
-      <c r="G125" t="s">
-        <v>600</v>
-      </c>
-      <c r="I125" t="s">
-        <v>787</v>
-      </c>
-      <c r="J125" t="s">
-        <v>866</v>
-      </c>
-      <c r="K125" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
-      <c r="C126" t="s">
-        <v>156</v>
-      </c>
-      <c r="D126" t="s">
-        <v>312</v>
-      </c>
-      <c r="E126" t="s">
-        <v>431</v>
-      </c>
-      <c r="G126" t="s">
-        <v>600</v>
-      </c>
-      <c r="I126" t="s">
-        <v>783</v>
-      </c>
-      <c r="J126" t="s">
-        <v>872</v>
-      </c>
-      <c r="K126" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
-      <c r="C127" t="s">
-        <v>156</v>
-      </c>
-      <c r="D127" t="s">
-        <v>312</v>
-      </c>
-      <c r="E127" t="s">
-        <v>431</v>
-      </c>
-      <c r="G127" t="s">
-        <v>600</v>
-      </c>
-      <c r="I127" t="s">
+      <c r="D141" t="s">
+        <v>263</v>
+      </c>
+      <c r="E141" t="s">
+        <v>332</v>
+      </c>
+      <c r="G141" t="s">
+        <v>497</v>
+      </c>
+      <c r="H141" t="s">
+        <v>561</v>
+      </c>
+      <c r="I141" t="s">
+        <v>645</v>
+      </c>
+      <c r="J141" t="s">
+        <v>704</v>
+      </c>
+      <c r="K141" t="s">
+        <v>744</v>
+      </c>
+      <c r="L141" t="s">
         <v>788</v>
       </c>
-      <c r="J127" t="s">
-        <v>882</v>
-      </c>
-      <c r="K127" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
-      <c r="C128" t="s">
-        <v>156</v>
-      </c>
-      <c r="D128" t="s">
-        <v>312</v>
-      </c>
-      <c r="E128" t="s">
-        <v>431</v>
-      </c>
-      <c r="G128" t="s">
-        <v>600</v>
-      </c>
-      <c r="H128" t="s">
-        <v>713</v>
-      </c>
-      <c r="I128" t="s">
-        <v>789</v>
-      </c>
-      <c r="J128" t="s">
-        <v>867</v>
-      </c>
-      <c r="K128" t="s">
-        <v>931</v>
-      </c>
-      <c r="L128" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="129" spans="2:12">
-      <c r="C129" t="s">
-        <v>156</v>
-      </c>
-      <c r="D129" t="s">
-        <v>312</v>
-      </c>
-      <c r="E129" t="s">
-        <v>431</v>
-      </c>
-      <c r="G129" t="s">
-        <v>600</v>
-      </c>
-      <c r="H129" t="s">
-        <v>713</v>
-      </c>
-      <c r="I129" t="s">
-        <v>790</v>
-      </c>
-      <c r="J129" t="s">
-        <v>869</v>
-      </c>
-      <c r="K129" t="s">
-        <v>931</v>
-      </c>
-      <c r="L129" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="130" spans="2:12">
-      <c r="C130" t="s">
-        <v>157</v>
-      </c>
-      <c r="G130" t="s">
-        <v>601</v>
-      </c>
-      <c r="K130" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="131" spans="2:12">
-      <c r="C131" t="s">
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" t="s">
+        <v>49</v>
+      </c>
+      <c r="B142" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142" t="s">
         <v>158</v>
       </c>
-      <c r="D131" t="s">
-        <v>313</v>
-      </c>
-      <c r="E131" t="s">
-        <v>431</v>
-      </c>
-      <c r="G131" t="s">
-        <v>602</v>
-      </c>
-      <c r="I131" t="s">
-        <v>791</v>
-      </c>
-      <c r="J131" t="s">
-        <v>883</v>
-      </c>
-      <c r="K131" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="132" spans="2:12">
-      <c r="C132" t="s">
-        <v>158</v>
-      </c>
-      <c r="D132" t="s">
-        <v>313</v>
-      </c>
-      <c r="E132" t="s">
-        <v>431</v>
-      </c>
-      <c r="G132" t="s">
-        <v>602</v>
-      </c>
-      <c r="I132" t="s">
-        <v>792</v>
-      </c>
-      <c r="J132" t="s">
-        <v>884</v>
-      </c>
-      <c r="K132" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="133" spans="2:12">
-      <c r="C133" t="s">
-        <v>158</v>
-      </c>
-      <c r="D133" t="s">
-        <v>313</v>
-      </c>
-      <c r="E133" t="s">
-        <v>431</v>
-      </c>
-      <c r="G133" t="s">
-        <v>602</v>
-      </c>
-      <c r="I133" t="s">
-        <v>793</v>
-      </c>
-      <c r="J133" t="s">
-        <v>885</v>
-      </c>
-      <c r="K133" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="134" spans="2:12">
-      <c r="C134" t="s">
-        <v>158</v>
-      </c>
-      <c r="D134" t="s">
-        <v>313</v>
-      </c>
-      <c r="E134" t="s">
-        <v>431</v>
-      </c>
-      <c r="G134" t="s">
-        <v>602</v>
-      </c>
-      <c r="H134" t="s">
-        <v>714</v>
-      </c>
-      <c r="I134" t="s">
-        <v>794</v>
-      </c>
-      <c r="J134" t="s">
-        <v>867</v>
-      </c>
-      <c r="K134" t="s">
-        <v>931</v>
-      </c>
-      <c r="L134" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="135" spans="2:12">
-      <c r="C135" t="s">
-        <v>158</v>
-      </c>
-      <c r="D135" t="s">
-        <v>313</v>
-      </c>
-      <c r="E135" t="s">
-        <v>431</v>
-      </c>
-      <c r="G135" t="s">
-        <v>602</v>
-      </c>
-      <c r="H135" t="s">
-        <v>714</v>
-      </c>
-      <c r="I135" t="s">
-        <v>795</v>
-      </c>
-      <c r="J135" t="s">
-        <v>869</v>
-      </c>
-      <c r="K135" t="s">
-        <v>931</v>
-      </c>
-      <c r="L135" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="136" spans="2:12">
-      <c r="C136" t="s">
+      <c r="D142" t="s">
+        <v>267</v>
+      </c>
+      <c r="E142" t="s">
+        <v>354</v>
+      </c>
+      <c r="G142" t="s">
+        <v>501</v>
+      </c>
+      <c r="I142" t="s">
+        <v>646</v>
+      </c>
+      <c r="J142" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="C143" t="s">
         <v>159</v>
       </c>
-      <c r="D136" t="s">
-        <v>314</v>
-      </c>
-      <c r="E136" t="s">
-        <v>431</v>
-      </c>
-      <c r="G136" t="s">
-        <v>603</v>
-      </c>
-      <c r="I136" t="s">
-        <v>796</v>
-      </c>
-      <c r="J136" t="s">
-        <v>883</v>
-      </c>
-      <c r="K136" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="137" spans="2:12">
-      <c r="C137" t="s">
-        <v>159</v>
-      </c>
-      <c r="D137" t="s">
-        <v>314</v>
-      </c>
-      <c r="E137" t="s">
-        <v>431</v>
-      </c>
-      <c r="G137" t="s">
-        <v>603</v>
-      </c>
-      <c r="I137" t="s">
-        <v>792</v>
-      </c>
-      <c r="J137" t="s">
-        <v>884</v>
-      </c>
-      <c r="K137" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="138" spans="2:12">
-      <c r="C138" t="s">
-        <v>159</v>
-      </c>
-      <c r="D138" t="s">
-        <v>314</v>
-      </c>
-      <c r="E138" t="s">
-        <v>431</v>
-      </c>
-      <c r="G138" t="s">
-        <v>603</v>
-      </c>
-      <c r="I138" t="s">
-        <v>797</v>
-      </c>
-      <c r="J138" t="s">
-        <v>886</v>
-      </c>
-      <c r="K138" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="139" spans="2:12">
-      <c r="B139" t="s">
+      <c r="G143" t="s">
+        <v>502</v>
+      </c>
+      <c r="I143" t="s">
+        <v>647</v>
+      </c>
+      <c r="J143" t="s">
+        <v>727</v>
+      </c>
+      <c r="K143" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" t="s">
         <v>49</v>
       </c>
-      <c r="C139" t="s">
+      <c r="B144" t="s">
+        <v>49</v>
+      </c>
+      <c r="C144" t="s">
         <v>160</v>
       </c>
-      <c r="D139" t="s">
-        <v>315</v>
-      </c>
-      <c r="E139" t="s">
-        <v>448</v>
-      </c>
-      <c r="G139" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="140" spans="2:12">
-      <c r="C140" t="s">
-        <v>159</v>
-      </c>
-      <c r="D140" t="s">
-        <v>314</v>
-      </c>
-      <c r="E140" t="s">
-        <v>431</v>
-      </c>
-      <c r="G140" t="s">
-        <v>603</v>
-      </c>
-      <c r="H140" t="s">
-        <v>715</v>
-      </c>
-      <c r="I140" t="s">
-        <v>798</v>
-      </c>
-      <c r="J140" t="s">
-        <v>867</v>
-      </c>
-      <c r="K140" t="s">
-        <v>931</v>
-      </c>
-      <c r="L140" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="141" spans="2:12">
-      <c r="B141" t="s">
-        <v>49</v>
-      </c>
-      <c r="C141" t="s">
-        <v>161</v>
-      </c>
-      <c r="D141" t="s">
-        <v>316</v>
-      </c>
-      <c r="E141" t="s">
-        <v>449</v>
-      </c>
-      <c r="G141" t="s">
-        <v>605</v>
-      </c>
-      <c r="H141" t="s">
-        <v>716</v>
-      </c>
-      <c r="I141" t="s">
-        <v>799</v>
-      </c>
-      <c r="J141" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="142" spans="2:12">
-      <c r="C142" t="s">
-        <v>159</v>
-      </c>
-      <c r="D142" t="s">
-        <v>314</v>
-      </c>
-      <c r="E142" t="s">
-        <v>431</v>
-      </c>
-      <c r="G142" t="s">
-        <v>603</v>
-      </c>
-      <c r="H142" t="s">
-        <v>715</v>
-      </c>
-      <c r="I142" t="s">
-        <v>800</v>
-      </c>
-      <c r="J142" t="s">
-        <v>869</v>
-      </c>
-      <c r="K142" t="s">
-        <v>931</v>
-      </c>
-      <c r="L142" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="143" spans="2:12">
-      <c r="B143" t="s">
-        <v>49</v>
-      </c>
-      <c r="C143" t="s">
-        <v>162</v>
-      </c>
-      <c r="D143" t="s">
-        <v>317</v>
-      </c>
-      <c r="E143" t="s">
-        <v>450</v>
-      </c>
-      <c r="G143" t="s">
-        <v>606</v>
-      </c>
-      <c r="H143" t="s">
-        <v>716</v>
-      </c>
-      <c r="I143" t="s">
-        <v>799</v>
-      </c>
-      <c r="J143" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="144" spans="2:12">
-      <c r="C144" t="s">
-        <v>163</v>
-      </c>
       <c r="D144" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="E144" t="s">
-        <v>431</v>
+        <v>355</v>
       </c>
       <c r="G144" t="s">
-        <v>607</v>
+        <v>503</v>
       </c>
       <c r="I144" t="s">
-        <v>801</v>
+        <v>648</v>
       </c>
       <c r="J144" t="s">
-        <v>883</v>
-      </c>
-      <c r="K144" t="s">
-        <v>930</v>
+        <v>728</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7080,1847 +6596,713 @@
         <v>49</v>
       </c>
       <c r="C145" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D145" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="E145" t="s">
-        <v>451</v>
+        <v>356</v>
       </c>
       <c r="G145" t="s">
-        <v>608</v>
+        <v>504</v>
       </c>
       <c r="I145" t="s">
-        <v>802</v>
+        <v>649</v>
       </c>
       <c r="J145" t="s">
-        <v>889</v>
+        <v>729</v>
       </c>
     </row>
     <row r="146" spans="1:12">
-      <c r="B146" t="s">
+      <c r="C146" t="s">
+        <v>162</v>
+      </c>
+      <c r="D146" t="s">
+        <v>270</v>
+      </c>
+      <c r="E146" t="s">
+        <v>357</v>
+      </c>
+      <c r="G146" t="s">
+        <v>505</v>
+      </c>
+      <c r="I146" t="s">
+        <v>650</v>
+      </c>
+      <c r="J146" t="s">
+        <v>673</v>
+      </c>
+      <c r="K146" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="B147" t="s">
         <v>49</v>
       </c>
-      <c r="C146" t="s">
-        <v>165</v>
-      </c>
-      <c r="D146" t="s">
-        <v>320</v>
-      </c>
-      <c r="E146" t="s">
-        <v>452</v>
-      </c>
-      <c r="G146" t="s">
-        <v>609</v>
-      </c>
-      <c r="H146" t="s">
-        <v>717</v>
-      </c>
-      <c r="I146" t="s">
-        <v>803</v>
-      </c>
-      <c r="J146" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
       <c r="C147" t="s">
         <v>163</v>
       </c>
       <c r="D147" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="E147" t="s">
-        <v>431</v>
+        <v>358</v>
       </c>
       <c r="G147" t="s">
-        <v>607</v>
-      </c>
-      <c r="H147" t="s">
-        <v>718</v>
+        <v>506</v>
       </c>
       <c r="I147" t="s">
-        <v>804</v>
+        <v>651</v>
       </c>
       <c r="J147" t="s">
-        <v>867</v>
-      </c>
-      <c r="K147" t="s">
-        <v>931</v>
-      </c>
-      <c r="L147" t="s">
-        <v>974</v>
+        <v>730</v>
       </c>
     </row>
     <row r="148" spans="1:12">
-      <c r="B148" t="s">
-        <v>49</v>
-      </c>
       <c r="C148" t="s">
-        <v>166</v>
-      </c>
-      <c r="D148" t="s">
-        <v>321</v>
-      </c>
-      <c r="E148" t="s">
-        <v>453</v>
+        <v>164</v>
       </c>
       <c r="G148" t="s">
-        <v>610</v>
+        <v>507</v>
       </c>
       <c r="H148" t="s">
-        <v>717</v>
+        <v>562</v>
       </c>
       <c r="I148" t="s">
-        <v>805</v>
+        <v>652</v>
       </c>
       <c r="J148" t="s">
-        <v>891</v>
+        <v>731</v>
+      </c>
+      <c r="K148" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="C149" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D149" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="E149" t="s">
-        <v>431</v>
+        <v>359</v>
       </c>
       <c r="G149" t="s">
-        <v>607</v>
-      </c>
-      <c r="H149" t="s">
-        <v>718</v>
+        <v>508</v>
       </c>
       <c r="I149" t="s">
-        <v>806</v>
+        <v>653</v>
       </c>
       <c r="J149" t="s">
-        <v>869</v>
+        <v>732</v>
       </c>
       <c r="K149" t="s">
-        <v>931</v>
+        <v>742</v>
       </c>
       <c r="L149" t="s">
-        <v>975</v>
+        <v>789</v>
       </c>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" t="s">
-        <v>49</v>
-      </c>
-      <c r="B150" t="s">
-        <v>49</v>
-      </c>
       <c r="C150" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D150" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="E150" t="s">
-        <v>454</v>
+        <v>360</v>
       </c>
       <c r="G150" t="s">
-        <v>611</v>
+        <v>509</v>
       </c>
       <c r="I150" t="s">
-        <v>807</v>
+        <v>654</v>
       </c>
       <c r="J150" t="s">
-        <v>892</v>
+        <v>733</v>
+      </c>
+      <c r="K150" t="s">
+        <v>742</v>
+      </c>
+      <c r="L150" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="151" spans="1:12">
       <c r="C151" t="s">
+        <v>167</v>
+      </c>
+      <c r="G151" t="s">
+        <v>510</v>
+      </c>
+      <c r="I151" t="s">
+        <v>652</v>
+      </c>
+      <c r="J151" t="s">
+        <v>731</v>
+      </c>
+      <c r="K151" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="C152" t="s">
         <v>168</v>
       </c>
-      <c r="G151" t="s">
-        <v>612</v>
-      </c>
-      <c r="I151" t="s">
-        <v>808</v>
-      </c>
-      <c r="J151" t="s">
-        <v>893</v>
-      </c>
-      <c r="K151" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" t="s">
-        <v>49</v>
-      </c>
-      <c r="B152" t="s">
-        <v>49</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
+        <v>274</v>
+      </c>
+      <c r="E152" t="s">
+        <v>361</v>
+      </c>
+      <c r="G152" t="s">
+        <v>511</v>
+      </c>
+      <c r="I152" t="s">
+        <v>654</v>
+      </c>
+      <c r="J152" t="s">
+        <v>734</v>
+      </c>
+      <c r="K152" t="s">
+        <v>742</v>
+      </c>
+      <c r="L152" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="C153" t="s">
         <v>169</v>
       </c>
-      <c r="D152" t="s">
-        <v>323</v>
-      </c>
-      <c r="E152" t="s">
-        <v>455</v>
-      </c>
-      <c r="G152" t="s">
-        <v>613</v>
-      </c>
-      <c r="I152" t="s">
-        <v>809</v>
-      </c>
-      <c r="J152" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="B153" t="s">
-        <v>49</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="G153" t="s">
+        <v>512</v>
+      </c>
+      <c r="K153" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" t="s">
+        <v>44</v>
+      </c>
+      <c r="C154" t="s">
         <v>170</v>
       </c>
-      <c r="D153" t="s">
-        <v>324</v>
-      </c>
-      <c r="E153" t="s">
-        <v>456</v>
-      </c>
-      <c r="G153" t="s">
-        <v>614</v>
-      </c>
-      <c r="I153" t="s">
-        <v>810</v>
-      </c>
-      <c r="J153" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
-      <c r="C154" t="s">
+      <c r="D154" t="s">
+        <v>275</v>
+      </c>
+      <c r="E154" t="s">
+        <v>362</v>
+      </c>
+      <c r="G154" t="s">
+        <v>513</v>
+      </c>
+      <c r="K154" t="s">
+        <v>746</v>
+      </c>
+      <c r="L154" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="C155" t="s">
         <v>171</v>
       </c>
-      <c r="D154" t="s">
-        <v>325</v>
-      </c>
-      <c r="E154" t="s">
-        <v>432</v>
-      </c>
-      <c r="G154" t="s">
-        <v>615</v>
-      </c>
-      <c r="I154" t="s">
-        <v>811</v>
-      </c>
-      <c r="J154" t="s">
-        <v>837</v>
-      </c>
-      <c r="K154" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="B155" t="s">
-        <v>49</v>
-      </c>
-      <c r="C155" t="s">
-        <v>172</v>
-      </c>
-      <c r="D155" t="s">
-        <v>326</v>
-      </c>
-      <c r="E155" t="s">
-        <v>457</v>
-      </c>
       <c r="G155" t="s">
-        <v>616</v>
-      </c>
-      <c r="I155" t="s">
-        <v>812</v>
-      </c>
-      <c r="J155" t="s">
-        <v>896</v>
+        <v>514</v>
+      </c>
+      <c r="K155" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="156" spans="1:12">
       <c r="C156" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="D156" t="s">
+        <v>276</v>
+      </c>
+      <c r="E156" t="s">
+        <v>363</v>
       </c>
       <c r="G156" t="s">
-        <v>617</v>
-      </c>
-      <c r="H156" t="s">
-        <v>719</v>
-      </c>
-      <c r="I156" t="s">
-        <v>813</v>
-      </c>
-      <c r="J156" t="s">
-        <v>897</v>
+        <v>515</v>
       </c>
       <c r="K156" t="s">
-        <v>929</v>
+        <v>746</v>
+      </c>
+      <c r="L156" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="157" spans="1:12">
       <c r="C157" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D157" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="E157" t="s">
-        <v>458</v>
+        <v>364</v>
       </c>
       <c r="G157" t="s">
-        <v>618</v>
-      </c>
-      <c r="I157" t="s">
-        <v>814</v>
-      </c>
-      <c r="J157" t="s">
-        <v>898</v>
+        <v>516</v>
       </c>
       <c r="K157" t="s">
-        <v>929</v>
+        <v>746</v>
       </c>
       <c r="L157" t="s">
-        <v>976</v>
+        <v>766</v>
       </c>
     </row>
     <row r="158" spans="1:12">
       <c r="C158" t="s">
+        <v>174</v>
+      </c>
+      <c r="G158" t="s">
+        <v>517</v>
+      </c>
+      <c r="K158" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="C159" t="s">
         <v>175</v>
       </c>
-      <c r="D158" t="s">
-        <v>328</v>
-      </c>
-      <c r="E158" t="s">
-        <v>459</v>
-      </c>
-      <c r="G158" t="s">
-        <v>619</v>
-      </c>
-      <c r="I158" t="s">
-        <v>815</v>
-      </c>
-      <c r="J158" t="s">
-        <v>899</v>
-      </c>
-      <c r="K158" t="s">
-        <v>929</v>
-      </c>
-      <c r="L158" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
-      <c r="A159" t="s">
-        <v>50</v>
-      </c>
-      <c r="C159" t="s">
-        <v>176</v>
+      <c r="D159" t="s">
+        <v>278</v>
+      </c>
+      <c r="E159" t="s">
+        <v>365</v>
       </c>
       <c r="G159" t="s">
-        <v>620</v>
-      </c>
-      <c r="H159" t="s">
-        <v>720</v>
-      </c>
-      <c r="I159" t="s">
-        <v>813</v>
-      </c>
-      <c r="J159" t="s">
-        <v>897</v>
+        <v>518</v>
       </c>
       <c r="K159" t="s">
-        <v>934</v>
+        <v>746</v>
+      </c>
+      <c r="L159" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="160" spans="1:12">
       <c r="C160" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G160" t="s">
-        <v>621</v>
-      </c>
-      <c r="I160" t="s">
-        <v>813</v>
-      </c>
-      <c r="J160" t="s">
-        <v>897</v>
+        <v>519</v>
       </c>
       <c r="K160" t="s">
-        <v>934</v>
+        <v>745</v>
       </c>
     </row>
     <row r="161" spans="1:12">
       <c r="C161" t="s">
-        <v>178</v>
-      </c>
-      <c r="D161" t="s">
-        <v>329</v>
-      </c>
-      <c r="E161" t="s">
-        <v>460</v>
+        <v>177</v>
       </c>
       <c r="G161" t="s">
-        <v>622</v>
-      </c>
-      <c r="I161" t="s">
-        <v>815</v>
-      </c>
-      <c r="J161" t="s">
-        <v>900</v>
+        <v>520</v>
       </c>
       <c r="K161" t="s">
-        <v>929</v>
-      </c>
-      <c r="L161" t="s">
-        <v>977</v>
+        <v>745</v>
       </c>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C162" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D162" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="E162" t="s">
-        <v>461</v>
+        <v>366</v>
       </c>
       <c r="G162" t="s">
-        <v>623</v>
+        <v>521</v>
       </c>
       <c r="K162" t="s">
-        <v>933</v>
+        <v>746</v>
       </c>
       <c r="L162" t="s">
-        <v>978</v>
+        <v>766</v>
       </c>
     </row>
     <row r="163" spans="1:12">
       <c r="C163" t="s">
+        <v>179</v>
+      </c>
+      <c r="D163" t="s">
+        <v>280</v>
+      </c>
+      <c r="E163" t="s">
+        <v>367</v>
+      </c>
+      <c r="G163" t="s">
+        <v>522</v>
+      </c>
+      <c r="K163" t="s">
+        <v>746</v>
+      </c>
+      <c r="L163" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="C164" t="s">
         <v>180</v>
       </c>
-      <c r="G163" t="s">
-        <v>624</v>
-      </c>
-      <c r="K163" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12">
-      <c r="A164" t="s">
-        <v>44</v>
-      </c>
-      <c r="C164" t="s">
-        <v>181</v>
-      </c>
       <c r="D164" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="E164" t="s">
-        <v>462</v>
+        <v>368</v>
       </c>
       <c r="G164" t="s">
-        <v>625</v>
+        <v>523</v>
       </c>
       <c r="K164" t="s">
-        <v>933</v>
+        <v>746</v>
       </c>
       <c r="L164" t="s">
-        <v>953</v>
+        <v>766</v>
       </c>
     </row>
     <row r="165" spans="1:12">
       <c r="C165" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="D165" t="s">
+        <v>282</v>
+      </c>
+      <c r="E165" t="s">
+        <v>369</v>
       </c>
       <c r="G165" t="s">
-        <v>626</v>
+        <v>524</v>
       </c>
       <c r="K165" t="s">
-        <v>932</v>
+        <v>746</v>
+      </c>
+      <c r="L165" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="166" spans="1:12">
       <c r="C166" t="s">
-        <v>183</v>
-      </c>
-      <c r="D166" t="s">
-        <v>332</v>
-      </c>
-      <c r="E166" t="s">
-        <v>463</v>
+        <v>182</v>
       </c>
       <c r="G166" t="s">
-        <v>627</v>
+        <v>525</v>
       </c>
       <c r="K166" t="s">
-        <v>933</v>
-      </c>
-      <c r="L166" t="s">
-        <v>953</v>
+        <v>745</v>
       </c>
     </row>
     <row r="167" spans="1:12">
       <c r="C167" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D167" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E167" t="s">
-        <v>464</v>
+        <v>370</v>
       </c>
       <c r="G167" t="s">
-        <v>628</v>
+        <v>526</v>
       </c>
       <c r="K167" t="s">
-        <v>933</v>
+        <v>746</v>
       </c>
       <c r="L167" t="s">
-        <v>953</v>
+        <v>766</v>
       </c>
     </row>
     <row r="168" spans="1:12">
       <c r="C168" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G168" t="s">
-        <v>629</v>
+        <v>527</v>
       </c>
       <c r="K168" t="s">
-        <v>932</v>
+        <v>745</v>
       </c>
     </row>
     <row r="169" spans="1:12">
       <c r="C169" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D169" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="E169" t="s">
-        <v>465</v>
+        <v>371</v>
       </c>
       <c r="G169" t="s">
-        <v>630</v>
+        <v>528</v>
       </c>
       <c r="K169" t="s">
-        <v>933</v>
+        <v>746</v>
       </c>
       <c r="L169" t="s">
-        <v>953</v>
+        <v>766</v>
       </c>
     </row>
     <row r="170" spans="1:12">
       <c r="C170" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="D170" t="s">
+        <v>285</v>
+      </c>
+      <c r="E170" t="s">
+        <v>372</v>
       </c>
       <c r="G170" t="s">
-        <v>631</v>
+        <v>529</v>
       </c>
       <c r="K170" t="s">
-        <v>932</v>
+        <v>746</v>
+      </c>
+      <c r="L170" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="171" spans="1:12">
       <c r="C171" t="s">
+        <v>187</v>
+      </c>
+      <c r="G171" t="s">
+        <v>530</v>
+      </c>
+      <c r="K171" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="C172" t="s">
         <v>188</v>
       </c>
-      <c r="G171" t="s">
-        <v>632</v>
-      </c>
-      <c r="K171" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12">
-      <c r="A172" t="s">
-        <v>43</v>
-      </c>
-      <c r="C172" t="s">
-        <v>189</v>
-      </c>
       <c r="D172" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="E172" t="s">
-        <v>466</v>
+        <v>373</v>
       </c>
       <c r="G172" t="s">
-        <v>633</v>
+        <v>531</v>
       </c>
       <c r="K172" t="s">
-        <v>933</v>
+        <v>746</v>
       </c>
       <c r="L172" t="s">
-        <v>953</v>
+        <v>766</v>
       </c>
     </row>
     <row r="173" spans="1:12">
       <c r="C173" t="s">
+        <v>189</v>
+      </c>
+      <c r="D173" t="s">
+        <v>287</v>
+      </c>
+      <c r="E173" t="s">
+        <v>374</v>
+      </c>
+      <c r="G173" t="s">
+        <v>532</v>
+      </c>
+      <c r="K173" t="s">
+        <v>746</v>
+      </c>
+      <c r="L173" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" t="s">
+        <v>49</v>
+      </c>
+      <c r="C174" t="s">
         <v>190</v>
       </c>
-      <c r="D173" t="s">
-        <v>336</v>
-      </c>
-      <c r="E173" t="s">
-        <v>467</v>
-      </c>
-      <c r="G173" t="s">
-        <v>634</v>
-      </c>
-      <c r="K173" t="s">
-        <v>933</v>
-      </c>
-      <c r="L173" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12">
-      <c r="C174" t="s">
+      <c r="D174" t="s">
+        <v>288</v>
+      </c>
+      <c r="E174" t="s">
+        <v>300</v>
+      </c>
+      <c r="F174" t="s">
+        <v>382</v>
+      </c>
+      <c r="G174" t="s">
+        <v>533</v>
+      </c>
+      <c r="H174" t="s">
+        <v>545</v>
+      </c>
+      <c r="I174" t="s">
+        <v>655</v>
+      </c>
+      <c r="J174" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" t="s">
+        <v>49</v>
+      </c>
+      <c r="C175" t="s">
         <v>191</v>
       </c>
-      <c r="D174" t="s">
-        <v>337</v>
-      </c>
-      <c r="E174" t="s">
-        <v>468</v>
-      </c>
-      <c r="G174" t="s">
-        <v>635</v>
-      </c>
-      <c r="K174" t="s">
-        <v>933</v>
-      </c>
-      <c r="L174" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
-      <c r="C175" t="s">
-        <v>192</v>
-      </c>
       <c r="D175" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="E175" t="s">
-        <v>469</v>
+        <v>301</v>
+      </c>
+      <c r="F175" t="s">
+        <v>383</v>
       </c>
       <c r="G175" t="s">
-        <v>636</v>
-      </c>
-      <c r="K175" t="s">
-        <v>933</v>
-      </c>
-      <c r="L175" t="s">
-        <v>953</v>
+        <v>534</v>
+      </c>
+      <c r="H175" t="s">
+        <v>546</v>
+      </c>
+      <c r="I175" t="s">
+        <v>655</v>
+      </c>
+      <c r="J175" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="176" spans="1:12">
       <c r="C176" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="D176" t="s">
+        <v>290</v>
+      </c>
+      <c r="E176" t="s">
+        <v>375</v>
+      </c>
+      <c r="F176" t="s">
+        <v>389</v>
       </c>
       <c r="G176" t="s">
-        <v>637</v>
-      </c>
-      <c r="K176" t="s">
-        <v>932</v>
+        <v>535</v>
+      </c>
+      <c r="H176" t="s">
+        <v>548</v>
+      </c>
+      <c r="L176" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="177" spans="1:12">
       <c r="C177" t="s">
+        <v>193</v>
+      </c>
+      <c r="D177" t="s">
+        <v>290</v>
+      </c>
+      <c r="E177" t="s">
+        <v>375</v>
+      </c>
+      <c r="F177" t="s">
+        <v>389</v>
+      </c>
+      <c r="G177" t="s">
+        <v>536</v>
+      </c>
+      <c r="H177" t="s">
+        <v>548</v>
+      </c>
+      <c r="L177" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" t="s">
+        <v>49</v>
+      </c>
+      <c r="C178" t="s">
         <v>194</v>
       </c>
-      <c r="D177" t="s">
-        <v>339</v>
-      </c>
-      <c r="E177" t="s">
-        <v>470</v>
-      </c>
-      <c r="G177" t="s">
-        <v>638</v>
-      </c>
-      <c r="K177" t="s">
-        <v>933</v>
-      </c>
-      <c r="L177" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12">
-      <c r="C178" t="s">
+      <c r="D178" t="s">
+        <v>291</v>
+      </c>
+      <c r="E178" t="s">
+        <v>316</v>
+      </c>
+      <c r="F178" t="s">
+        <v>388</v>
+      </c>
+      <c r="G178" t="s">
+        <v>537</v>
+      </c>
+      <c r="I178" t="s">
+        <v>656</v>
+      </c>
+      <c r="J178" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" t="s">
+        <v>49</v>
+      </c>
+      <c r="C179" t="s">
         <v>195</v>
       </c>
-      <c r="G178" t="s">
-        <v>639</v>
-      </c>
-      <c r="K178" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12">
-      <c r="C179" t="s">
+      <c r="D179" t="s">
+        <v>292</v>
+      </c>
+      <c r="E179" t="s">
+        <v>376</v>
+      </c>
+      <c r="G179" t="s">
+        <v>538</v>
+      </c>
+      <c r="I179" t="s">
+        <v>657</v>
+      </c>
+      <c r="J179" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" t="s">
+        <v>49</v>
+      </c>
+      <c r="C180" t="s">
         <v>196</v>
       </c>
-      <c r="D179" t="s">
-        <v>340</v>
-      </c>
-      <c r="E179" t="s">
-        <v>471</v>
-      </c>
-      <c r="G179" t="s">
-        <v>640</v>
-      </c>
-      <c r="K179" t="s">
-        <v>933</v>
-      </c>
-      <c r="L179" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12">
-      <c r="C180" t="s">
-        <v>197</v>
-      </c>
       <c r="D180" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="E180" t="s">
-        <v>472</v>
+        <v>377</v>
       </c>
       <c r="G180" t="s">
-        <v>641</v>
-      </c>
-      <c r="K180" t="s">
-        <v>933</v>
-      </c>
-      <c r="L180" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12">
-      <c r="C181" t="s">
-        <v>198</v>
-      </c>
-      <c r="G181" t="s">
-        <v>642</v>
-      </c>
-      <c r="K181" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12">
-      <c r="C182" t="s">
-        <v>199</v>
-      </c>
-      <c r="D182" t="s">
-        <v>342</v>
-      </c>
-      <c r="E182" t="s">
-        <v>473</v>
-      </c>
-      <c r="G182" t="s">
-        <v>643</v>
-      </c>
-      <c r="K182" t="s">
-        <v>933</v>
-      </c>
-      <c r="L182" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12">
-      <c r="C183" t="s">
-        <v>200</v>
-      </c>
-      <c r="D183" t="s">
-        <v>343</v>
-      </c>
-      <c r="E183" t="s">
-        <v>474</v>
-      </c>
-      <c r="G183" t="s">
-        <v>644</v>
-      </c>
-      <c r="K183" t="s">
-        <v>933</v>
-      </c>
-      <c r="L183" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12">
-      <c r="C184" t="s">
-        <v>201</v>
-      </c>
-      <c r="D184" t="s">
-        <v>344</v>
-      </c>
-      <c r="E184" t="s">
-        <v>406</v>
-      </c>
-      <c r="G184" t="s">
-        <v>645</v>
-      </c>
-      <c r="I184" t="s">
-        <v>736</v>
-      </c>
-      <c r="J184" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12">
-      <c r="C185" t="s">
-        <v>202</v>
-      </c>
-      <c r="D185" t="s">
-        <v>345</v>
-      </c>
-      <c r="E185" t="s">
-        <v>404</v>
-      </c>
-      <c r="F185" t="s">
-        <v>487</v>
-      </c>
-      <c r="G185" t="s">
-        <v>646</v>
-      </c>
-      <c r="I185" t="s">
-        <v>735</v>
-      </c>
-      <c r="J185" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12">
-      <c r="C186" t="s">
-        <v>203</v>
-      </c>
-      <c r="D186" t="s">
-        <v>346</v>
-      </c>
-      <c r="E186" t="s">
-        <v>432</v>
-      </c>
-      <c r="G186" t="s">
-        <v>647</v>
-      </c>
-      <c r="I186" t="s">
-        <v>811</v>
-      </c>
-      <c r="J186" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12">
-      <c r="A187" t="s">
-        <v>49</v>
-      </c>
-      <c r="C187" t="s">
-        <v>204</v>
-      </c>
-      <c r="D187" t="s">
-        <v>347</v>
-      </c>
-      <c r="E187" t="s">
-        <v>399</v>
-      </c>
-      <c r="F187" t="s">
-        <v>483</v>
-      </c>
-      <c r="G187" t="s">
-        <v>648</v>
-      </c>
-      <c r="H187" t="s">
-        <v>701</v>
-      </c>
-      <c r="I187" t="s">
-        <v>816</v>
-      </c>
-      <c r="J187" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12">
-      <c r="A188" t="s">
-        <v>49</v>
-      </c>
-      <c r="C188" t="s">
-        <v>205</v>
-      </c>
-      <c r="D188" t="s">
-        <v>348</v>
-      </c>
-      <c r="E188" t="s">
-        <v>400</v>
-      </c>
-      <c r="F188" t="s">
-        <v>484</v>
-      </c>
-      <c r="G188" t="s">
-        <v>649</v>
-      </c>
-      <c r="H188" t="s">
-        <v>702</v>
-      </c>
-      <c r="I188" t="s">
-        <v>816</v>
-      </c>
-      <c r="J188" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12">
-      <c r="C189" t="s">
-        <v>206</v>
-      </c>
-      <c r="D189" t="s">
-        <v>349</v>
-      </c>
-      <c r="E189" t="s">
-        <v>402</v>
-      </c>
-      <c r="F189" t="s">
-        <v>482</v>
-      </c>
-      <c r="G189" t="s">
-        <v>650</v>
-      </c>
-      <c r="H189" t="s">
-        <v>703</v>
-      </c>
-      <c r="I189" t="s">
-        <v>732</v>
-      </c>
-      <c r="J189" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12">
-      <c r="C190" t="s">
-        <v>207</v>
-      </c>
-      <c r="D190" t="s">
-        <v>350</v>
-      </c>
-      <c r="E190" t="s">
-        <v>398</v>
-      </c>
-      <c r="F190" t="s">
-        <v>481</v>
-      </c>
-      <c r="G190" t="s">
-        <v>651</v>
-      </c>
-      <c r="H190" t="s">
-        <v>700</v>
-      </c>
-      <c r="I190" t="s">
-        <v>728</v>
-      </c>
-      <c r="J190" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12">
-      <c r="C191" t="s">
-        <v>208</v>
-      </c>
-      <c r="D191" t="s">
-        <v>351</v>
-      </c>
-      <c r="E191" t="s">
-        <v>458</v>
-      </c>
-      <c r="G191" t="s">
-        <v>652</v>
-      </c>
-      <c r="I191" t="s">
-        <v>814</v>
-      </c>
-      <c r="J191" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12">
-      <c r="C192" t="s">
-        <v>209</v>
-      </c>
-      <c r="D192" t="s">
-        <v>352</v>
-      </c>
-      <c r="E192" t="s">
-        <v>459</v>
-      </c>
-      <c r="G192" t="s">
-        <v>653</v>
-      </c>
-      <c r="I192" t="s">
-        <v>815</v>
-      </c>
-      <c r="J192" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12">
-      <c r="C193" t="s">
-        <v>210</v>
-      </c>
-      <c r="D193" t="s">
-        <v>353</v>
-      </c>
-      <c r="E193" t="s">
-        <v>460</v>
-      </c>
-      <c r="G193" t="s">
-        <v>654</v>
-      </c>
-      <c r="I193" t="s">
-        <v>815</v>
-      </c>
-      <c r="J193" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12">
-      <c r="C194" t="s">
-        <v>211</v>
-      </c>
-      <c r="D194" t="s">
-        <v>354</v>
-      </c>
-      <c r="E194" t="s">
-        <v>411</v>
-      </c>
-      <c r="F194" t="s">
-        <v>486</v>
-      </c>
-      <c r="G194" t="s">
-        <v>655</v>
-      </c>
-      <c r="I194" t="s">
-        <v>738</v>
-      </c>
-      <c r="J194" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12">
-      <c r="C195" t="s">
-        <v>212</v>
-      </c>
-      <c r="D195" t="s">
-        <v>355</v>
-      </c>
-      <c r="E195" t="s">
-        <v>409</v>
-      </c>
-      <c r="F195" t="s">
-        <v>488</v>
-      </c>
-      <c r="G195" t="s">
-        <v>656</v>
-      </c>
-      <c r="I195" t="s">
-        <v>735</v>
-      </c>
-      <c r="J195" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12">
-      <c r="C196" t="s">
-        <v>213</v>
-      </c>
-      <c r="D196" t="s">
-        <v>356</v>
-      </c>
-      <c r="E196" t="s">
-        <v>413</v>
-      </c>
-      <c r="F196" t="s">
-        <v>485</v>
-      </c>
-      <c r="G196" t="s">
+        <v>539</v>
+      </c>
+      <c r="I180" t="s">
         <v>657</v>
       </c>
-      <c r="I196" t="s">
+      <c r="J180" t="s">
         <v>739</v>
-      </c>
-      <c r="J196" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12">
-      <c r="C197" t="s">
-        <v>214</v>
-      </c>
-      <c r="D197" t="s">
-        <v>357</v>
-      </c>
-      <c r="E197" t="s">
-        <v>412</v>
-      </c>
-      <c r="F197" t="s">
-        <v>486</v>
-      </c>
-      <c r="G197" t="s">
-        <v>658</v>
-      </c>
-      <c r="I197" t="s">
-        <v>738</v>
-      </c>
-      <c r="J197" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12">
-      <c r="C198" t="s">
-        <v>215</v>
-      </c>
-      <c r="D198" t="s">
-        <v>358</v>
-      </c>
-      <c r="E198" t="s">
-        <v>475</v>
-      </c>
-      <c r="F198" t="s">
-        <v>491</v>
-      </c>
-      <c r="G198" t="s">
-        <v>659</v>
-      </c>
-      <c r="H198" t="s">
-        <v>704</v>
-      </c>
-      <c r="L198" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12">
-      <c r="C199" t="s">
-        <v>216</v>
-      </c>
-      <c r="D199" t="s">
-        <v>358</v>
-      </c>
-      <c r="E199" t="s">
-        <v>475</v>
-      </c>
-      <c r="F199" t="s">
-        <v>491</v>
-      </c>
-      <c r="G199" t="s">
-        <v>660</v>
-      </c>
-      <c r="H199" t="s">
-        <v>704</v>
-      </c>
-      <c r="L199" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12">
-      <c r="A200" t="s">
-        <v>49</v>
-      </c>
-      <c r="C200" t="s">
-        <v>217</v>
-      </c>
-      <c r="D200" t="s">
-        <v>359</v>
-      </c>
-      <c r="E200" t="s">
-        <v>416</v>
-      </c>
-      <c r="F200" t="s">
-        <v>490</v>
-      </c>
-      <c r="G200" t="s">
-        <v>661</v>
-      </c>
-      <c r="I200" t="s">
-        <v>817</v>
-      </c>
-      <c r="J200" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12">
-      <c r="C201" t="s">
-        <v>218</v>
-      </c>
-      <c r="D201" t="s">
-        <v>360</v>
-      </c>
-      <c r="E201" t="s">
-        <v>439</v>
-      </c>
-      <c r="F201" t="s">
-        <v>489</v>
-      </c>
-      <c r="G201" t="s">
-        <v>662</v>
-      </c>
-      <c r="I201" t="s">
-        <v>775</v>
-      </c>
-      <c r="J201" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12">
-      <c r="C202" t="s">
-        <v>219</v>
-      </c>
-      <c r="D202" t="s">
-        <v>361</v>
-      </c>
-      <c r="E202" t="s">
-        <v>428</v>
-      </c>
-      <c r="F202" t="s">
-        <v>495</v>
-      </c>
-      <c r="G202" t="s">
-        <v>663</v>
-      </c>
-      <c r="I202" t="s">
-        <v>818</v>
-      </c>
-      <c r="J202" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12">
-      <c r="C203" t="s">
-        <v>220</v>
-      </c>
-      <c r="D203" t="s">
-        <v>362</v>
-      </c>
-      <c r="E203" t="s">
-        <v>422</v>
-      </c>
-      <c r="F203" t="s">
-        <v>492</v>
-      </c>
-      <c r="G203" t="s">
-        <v>664</v>
-      </c>
-      <c r="I203" t="s">
-        <v>748</v>
-      </c>
-      <c r="J203" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12">
-      <c r="C204" t="s">
-        <v>221</v>
-      </c>
-      <c r="D204" t="s">
-        <v>363</v>
-      </c>
-      <c r="E204" t="s">
-        <v>423</v>
-      </c>
-      <c r="F204" t="s">
-        <v>492</v>
-      </c>
-      <c r="G204" t="s">
-        <v>665</v>
-      </c>
-      <c r="I204" t="s">
-        <v>750</v>
-      </c>
-      <c r="J204" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12">
-      <c r="C205" t="s">
-        <v>222</v>
-      </c>
-      <c r="D205" t="s">
-        <v>364</v>
-      </c>
-      <c r="E205" t="s">
-        <v>414</v>
-      </c>
-      <c r="F205" t="s">
-        <v>485</v>
-      </c>
-      <c r="G205" t="s">
-        <v>666</v>
-      </c>
-      <c r="I205" t="s">
-        <v>739</v>
-      </c>
-      <c r="J205" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12">
-      <c r="C206" t="s">
-        <v>223</v>
-      </c>
-      <c r="D206" t="s">
-        <v>365</v>
-      </c>
-      <c r="E206" t="s">
-        <v>429</v>
-      </c>
-      <c r="F206" t="s">
-        <v>494</v>
-      </c>
-      <c r="G206" t="s">
-        <v>667</v>
-      </c>
-      <c r="I206" t="s">
-        <v>756</v>
-      </c>
-      <c r="J206" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12">
-      <c r="C207" t="s">
-        <v>224</v>
-      </c>
-      <c r="D207" t="s">
-        <v>366</v>
-      </c>
-      <c r="E207" t="s">
-        <v>425</v>
-      </c>
-      <c r="F207" t="s">
-        <v>485</v>
-      </c>
-      <c r="G207" t="s">
-        <v>668</v>
-      </c>
-      <c r="I207" t="s">
-        <v>753</v>
-      </c>
-      <c r="J207" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12">
-      <c r="C208" t="s">
-        <v>225</v>
-      </c>
-      <c r="D208" t="s">
-        <v>367</v>
-      </c>
-      <c r="E208" t="s">
-        <v>401</v>
-      </c>
-      <c r="F208" t="s">
-        <v>485</v>
-      </c>
-      <c r="G208" t="s">
-        <v>669</v>
-      </c>
-      <c r="I208" t="s">
-        <v>731</v>
-      </c>
-      <c r="J208" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
-      <c r="C209" t="s">
-        <v>226</v>
-      </c>
-      <c r="D209" t="s">
-        <v>368</v>
-      </c>
-      <c r="E209" t="s">
-        <v>395</v>
-      </c>
-      <c r="G209" t="s">
-        <v>670</v>
-      </c>
-      <c r="I209" t="s">
-        <v>726</v>
-      </c>
-      <c r="J209" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
-      <c r="C210" t="s">
-        <v>227</v>
-      </c>
-      <c r="D210" t="s">
-        <v>369</v>
-      </c>
-      <c r="E210" t="s">
-        <v>396</v>
-      </c>
-      <c r="G210" t="s">
-        <v>671</v>
-      </c>
-      <c r="I210" t="s">
-        <v>727</v>
-      </c>
-      <c r="J210" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
-      <c r="A211" t="s">
-        <v>49</v>
-      </c>
-      <c r="C211" t="s">
-        <v>228</v>
-      </c>
-      <c r="D211" t="s">
-        <v>370</v>
-      </c>
-      <c r="E211" t="s">
-        <v>476</v>
-      </c>
-      <c r="G211" t="s">
-        <v>672</v>
-      </c>
-      <c r="I211" t="s">
-        <v>819</v>
-      </c>
-      <c r="J211" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
-      <c r="C212" t="s">
-        <v>229</v>
-      </c>
-      <c r="D212" t="s">
-        <v>371</v>
-      </c>
-      <c r="E212" t="s">
-        <v>477</v>
-      </c>
-      <c r="G212" t="s">
-        <v>673</v>
-      </c>
-      <c r="I212" t="s">
-        <v>820</v>
-      </c>
-      <c r="J212" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
-      <c r="C213" t="s">
-        <v>230</v>
-      </c>
-      <c r="D213" t="s">
-        <v>372</v>
-      </c>
-      <c r="E213" t="s">
-        <v>478</v>
-      </c>
-      <c r="F213" t="s">
-        <v>496</v>
-      </c>
-      <c r="G213" t="s">
-        <v>674</v>
-      </c>
-      <c r="I213" t="s">
-        <v>821</v>
-      </c>
-      <c r="J213" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
-      <c r="A214" t="s">
-        <v>49</v>
-      </c>
-      <c r="C214" t="s">
-        <v>231</v>
-      </c>
-      <c r="D214" t="s">
-        <v>373</v>
-      </c>
-      <c r="E214" t="s">
-        <v>479</v>
-      </c>
-      <c r="G214" t="s">
-        <v>675</v>
-      </c>
-      <c r="I214" t="s">
-        <v>819</v>
-      </c>
-      <c r="J214" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
-      <c r="C215" t="s">
-        <v>232</v>
-      </c>
-      <c r="D215" t="s">
-        <v>374</v>
-      </c>
-      <c r="E215" t="s">
-        <v>466</v>
-      </c>
-      <c r="G215" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
-      <c r="C216" t="s">
-        <v>233</v>
-      </c>
-      <c r="D216" t="s">
-        <v>375</v>
-      </c>
-      <c r="E216" t="s">
-        <v>471</v>
-      </c>
-      <c r="G216" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10">
-      <c r="C217" t="s">
-        <v>234</v>
-      </c>
-      <c r="D217" t="s">
-        <v>376</v>
-      </c>
-      <c r="E217" t="s">
-        <v>472</v>
-      </c>
-      <c r="G217" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10">
-      <c r="C218" t="s">
-        <v>235</v>
-      </c>
-      <c r="D218" t="s">
-        <v>377</v>
-      </c>
-      <c r="E218" t="s">
-        <v>473</v>
-      </c>
-      <c r="G218" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10">
-      <c r="C219" t="s">
-        <v>236</v>
-      </c>
-      <c r="D219" t="s">
-        <v>378</v>
-      </c>
-      <c r="E219" t="s">
-        <v>474</v>
-      </c>
-      <c r="G219" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10">
-      <c r="C220" t="s">
-        <v>237</v>
-      </c>
-      <c r="D220" t="s">
-        <v>379</v>
-      </c>
-      <c r="E220" t="s">
-        <v>462</v>
-      </c>
-      <c r="G220" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
-      <c r="C221" t="s">
-        <v>238</v>
-      </c>
-      <c r="D221" t="s">
-        <v>380</v>
-      </c>
-      <c r="E221" t="s">
-        <v>469</v>
-      </c>
-      <c r="G221" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10">
-      <c r="C222" t="s">
-        <v>239</v>
-      </c>
-      <c r="D222" t="s">
-        <v>381</v>
-      </c>
-      <c r="E222" t="s">
-        <v>461</v>
-      </c>
-      <c r="G222" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10">
-      <c r="C223" t="s">
-        <v>240</v>
-      </c>
-      <c r="D223" t="s">
-        <v>382</v>
-      </c>
-      <c r="E223" t="s">
-        <v>463</v>
-      </c>
-      <c r="G223" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10">
-      <c r="C224" t="s">
-        <v>241</v>
-      </c>
-      <c r="D224" t="s">
-        <v>383</v>
-      </c>
-      <c r="E224" t="s">
-        <v>464</v>
-      </c>
-      <c r="G224" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="225" spans="3:10">
-      <c r="C225" t="s">
-        <v>242</v>
-      </c>
-      <c r="D225" t="s">
-        <v>384</v>
-      </c>
-      <c r="E225" t="s">
-        <v>431</v>
-      </c>
-      <c r="G225" t="s">
-        <v>686</v>
-      </c>
-      <c r="I225" t="s">
-        <v>782</v>
-      </c>
-      <c r="J225" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="226" spans="3:10">
-      <c r="C226" t="s">
-        <v>243</v>
-      </c>
-      <c r="D226" t="s">
-        <v>385</v>
-      </c>
-      <c r="E226" t="s">
-        <v>431</v>
-      </c>
-      <c r="G226" t="s">
-        <v>687</v>
-      </c>
-      <c r="I226" t="s">
-        <v>787</v>
-      </c>
-      <c r="J226" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="227" spans="3:10">
-      <c r="C227" t="s">
-        <v>244</v>
-      </c>
-      <c r="D227" t="s">
-        <v>386</v>
-      </c>
-      <c r="E227" t="s">
-        <v>431</v>
-      </c>
-      <c r="G227" t="s">
-        <v>688</v>
-      </c>
-      <c r="H227" t="s">
-        <v>721</v>
-      </c>
-      <c r="I227" t="s">
-        <v>768</v>
-      </c>
-      <c r="J227" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="228" spans="3:10">
-      <c r="C228" t="s">
-        <v>245</v>
-      </c>
-      <c r="D228" t="s">
-        <v>387</v>
-      </c>
-      <c r="E228" t="s">
-        <v>431</v>
-      </c>
-      <c r="G228" t="s">
-        <v>689</v>
-      </c>
-      <c r="H228" t="s">
-        <v>721</v>
-      </c>
-      <c r="I228" t="s">
-        <v>765</v>
-      </c>
-      <c r="J228" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="229" spans="3:10">
-      <c r="C229" t="s">
-        <v>246</v>
-      </c>
-      <c r="D229" t="s">
-        <v>388</v>
-      </c>
-      <c r="E229" t="s">
-        <v>431</v>
-      </c>
-      <c r="G229" t="s">
-        <v>690</v>
-      </c>
-      <c r="H229" t="s">
-        <v>721</v>
-      </c>
-      <c r="I229" t="s">
-        <v>761</v>
-      </c>
-      <c r="J229" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="230" spans="3:10">
-      <c r="C230" t="s">
-        <v>247</v>
-      </c>
-      <c r="D230" t="s">
-        <v>389</v>
-      </c>
-      <c r="E230" t="s">
-        <v>431</v>
-      </c>
-      <c r="G230" t="s">
-        <v>691</v>
-      </c>
-      <c r="I230" t="s">
-        <v>801</v>
-      </c>
-      <c r="J230" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="231" spans="3:10">
-      <c r="C231" t="s">
-        <v>248</v>
-      </c>
-      <c r="D231" t="s">
-        <v>390</v>
-      </c>
-      <c r="E231" t="s">
-        <v>431</v>
-      </c>
-      <c r="G231" t="s">
-        <v>692</v>
-      </c>
-      <c r="I231" t="s">
-        <v>796</v>
-      </c>
-      <c r="J231" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="232" spans="3:10">
-      <c r="C232" t="s">
-        <v>249</v>
-      </c>
-      <c r="D232" t="s">
-        <v>391</v>
-      </c>
-      <c r="E232" t="s">
-        <v>431</v>
-      </c>
-      <c r="G232" t="s">
-        <v>693</v>
-      </c>
-      <c r="I232" t="s">
-        <v>791</v>
-      </c>
-      <c r="J232" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="233" spans="3:10">
-      <c r="C233" t="s">
-        <v>250</v>
-      </c>
-      <c r="D233" t="s">
-        <v>392</v>
-      </c>
-      <c r="E233" t="s">
-        <v>431</v>
-      </c>
-      <c r="G233" t="s">
-        <v>694</v>
-      </c>
-      <c r="I233" t="s">
-        <v>772</v>
-      </c>
-      <c r="J233" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="234" spans="3:10">
-      <c r="C234" t="s">
-        <v>251</v>
-      </c>
-      <c r="D234" t="s">
-        <v>393</v>
-      </c>
-      <c r="E234" t="s">
-        <v>431</v>
-      </c>
-      <c r="G234" t="s">
-        <v>695</v>
-      </c>
-      <c r="H234" t="s">
-        <v>707</v>
-      </c>
-      <c r="I234" t="s">
-        <v>769</v>
-      </c>
-      <c r="J234" t="s">
-        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -8941,214 +7323,214 @@
         <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>979</v>
+        <v>791</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>980</v>
+        <v>792</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>981</v>
+        <v>793</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>982</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
-        <v>986</v>
+        <v>798</v>
       </c>
       <c r="C2" t="s">
-        <v>513</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s">
-        <v>987</v>
+        <v>799</v>
       </c>
       <c r="C3" t="s">
-        <v>516</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>379</v>
       </c>
       <c r="B4" t="s">
-        <v>988</v>
+        <v>800</v>
       </c>
       <c r="C4" t="s">
-        <v>546</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>488</v>
+        <v>386</v>
       </c>
       <c r="B5" t="s">
-        <v>989</v>
+        <v>801</v>
       </c>
       <c r="C5" t="s">
-        <v>530</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>483</v>
+        <v>382</v>
       </c>
       <c r="B6" t="s">
-        <v>990</v>
+        <v>802</v>
       </c>
       <c r="C6" t="s">
-        <v>516</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>484</v>
+        <v>383</v>
       </c>
       <c r="B7" t="s">
-        <v>990</v>
+        <v>802</v>
       </c>
       <c r="C7" t="s">
-        <v>516</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
-        <v>990</v>
+        <v>802</v>
       </c>
       <c r="C8" t="s">
-        <v>539</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>494</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
-        <v>991</v>
+        <v>803</v>
       </c>
       <c r="C9" t="s">
-        <v>556</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
-        <v>992</v>
+        <v>804</v>
       </c>
       <c r="C10" t="s">
-        <v>595</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>983</v>
+        <v>795</v>
       </c>
       <c r="B11" t="s">
-        <v>993</v>
+        <v>805</v>
       </c>
       <c r="C11" t="s">
-        <v>497</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>489</v>
+        <v>387</v>
       </c>
       <c r="B12" t="s">
-        <v>994</v>
+        <v>806</v>
       </c>
       <c r="C12" t="s">
-        <v>595</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>491</v>
+        <v>389</v>
       </c>
       <c r="B13" t="s">
-        <v>995</v>
+        <v>807</v>
       </c>
       <c r="C13" t="s">
-        <v>541</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>495</v>
+        <v>393</v>
       </c>
       <c r="B14" t="s">
-        <v>996</v>
+        <v>808</v>
       </c>
       <c r="C14" t="s">
-        <v>556</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>385</v>
       </c>
       <c r="B15" t="s">
-        <v>989</v>
+        <v>801</v>
       </c>
       <c r="C15" t="s">
-        <v>522</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>984</v>
+        <v>796</v>
       </c>
       <c r="B16" t="s">
-        <v>992</v>
+        <v>804</v>
       </c>
       <c r="C16" t="s">
-        <v>522</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>985</v>
+        <v>797</v>
       </c>
       <c r="B17" t="s">
-        <v>997</v>
+        <v>809</v>
       </c>
       <c r="C17" t="s">
-        <v>522</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="B18" t="s">
-        <v>998</v>
+        <v>810</v>
       </c>
       <c r="C18" t="s">
-        <v>546</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>492</v>
+        <v>390</v>
       </c>
       <c r="B19" t="s">
-        <v>999</v>
+        <v>811</v>
       </c>
       <c r="C19" t="s">
-        <v>546</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -9166,282 +7548,282 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1000</v>
+        <v>812</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1001</v>
+        <v>813</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1002</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1003</v>
+        <v>815</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1004</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1005</v>
+        <v>817</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1006</v>
+        <v>818</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1007</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1008</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1009</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1010</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1011</v>
+        <v>823</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1012</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1013</v>
+        <v>825</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>1014</v>
+        <v>826</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>1015</v>
+        <v>827</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>1016</v>
+        <v>828</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1017</v>
+        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1018</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1019</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1020</v>
+        <v>832</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1021</v>
+        <v>833</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1022</v>
+        <v>834</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>1023</v>
+        <v>835</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>1024</v>
+        <v>836</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>1025</v>
+        <v>837</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>1026</v>
+        <v>838</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>1027</v>
+        <v>839</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>1028</v>
+        <v>840</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>1029</v>
+        <v>841</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>1030</v>
+        <v>842</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>1031</v>
+        <v>843</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>1032</v>
+        <v>844</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>1033</v>
+        <v>845</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>1034</v>
+        <v>846</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>1035</v>
+        <v>847</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>1036</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>1037</v>
+        <v>849</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>1038</v>
+        <v>850</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>1039</v>
+        <v>851</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>1040</v>
+        <v>852</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>1041</v>
+        <v>853</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>1042</v>
+        <v>854</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>1043</v>
+        <v>855</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>1044</v>
+        <v>856</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>1045</v>
+        <v>857</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>1046</v>
+        <v>858</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>1047</v>
+        <v>859</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>1048</v>
+        <v>860</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>1049</v>
+        <v>861</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>1050</v>
+        <v>862</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>1051</v>
+        <v>863</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>1052</v>
+        <v>864</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>1053</v>
+        <v>865</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>1054</v>
+        <v>866</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>1055</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
